--- a/premise/data/utils/import/classifications.xlsx
+++ b/premise/data/utils/import/classifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/utils/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/utils/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B797EC-87B3-3A42-84D4-74B7E740B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD08B9CC-938F-CC4B-9312-CAA8EE68F87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="760" windowWidth="29840" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$2717</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$2719</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10868" uniqueCount="3232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10876" uniqueCount="3235">
   <si>
     <t>name</t>
   </si>
@@ -9732,6 +9732,15 @@
   </si>
   <si>
     <t>41122: Alloy steel in ingots or other primary forms and semi-finished products of alloy steel</t>
+  </si>
+  <si>
+    <t>market for pig iron</t>
+  </si>
+  <si>
+    <t>market for steel, unalloyed</t>
+  </si>
+  <si>
+    <t>steel, unalloyed</t>
   </si>
 </sst>
 </file>
@@ -10099,10 +10108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2717"/>
+  <dimension ref="A1:D2719"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1986" workbookViewId="0">
-      <selection activeCell="B2000" sqref="B2000"/>
+    <sheetView tabSelected="1" topLeftCell="A2690" workbookViewId="0">
+      <selection activeCell="C2721" sqref="C2721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48151,12 +48160,36 @@
         <v>2741</v>
       </c>
     </row>
+    <row r="2718" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2718" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C2718" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D2718" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2719" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C2719" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D2719" t="s">
+        <v>3231</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2717" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2717">
-      <sortCondition ref="A1:A2717"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D2719" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/utils/import/classifications.xlsx
+++ b/premise/data/utils/import/classifications.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/utils/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F3DA4A-E22D-5A48-A3C5-CB08EC426F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953C614F-BBB1-A742-820C-2994CACEB4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="760" windowWidth="29840" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40160" yWindow="-680" windowWidth="29840" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3073</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3075</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12296" uniqueCount="3433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12300" uniqueCount="3434">
   <si>
     <t>name</t>
   </si>
@@ -10335,6 +10335,9 @@
   </si>
   <si>
     <t>battery production, Li-ion, NMC532</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry, gasoline, 3.5 metric ton</t>
   </si>
 </sst>
 </file>
@@ -10702,10 +10705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3074"/>
+  <dimension ref="A1:D3075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3035" workbookViewId="0">
-      <selection activeCell="B3066" sqref="B3066"/>
+    <sheetView tabSelected="1" topLeftCell="A2601" workbookViewId="0">
+      <selection activeCell="C2636" sqref="C2636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47552,10 +47555,10 @@
     </row>
     <row r="2632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2632" t="s">
-        <v>1460</v>
+        <v>3433</v>
       </c>
       <c r="B2632" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2632" t="s">
         <v>2635</v>
@@ -47566,10 +47569,10 @@
     </row>
     <row r="2633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2633" t="s">
-        <v>3323</v>
+        <v>1460</v>
       </c>
       <c r="B2633" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2633" t="s">
         <v>2635</v>
@@ -47580,10 +47583,10 @@
     </row>
     <row r="2634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2634" t="s">
-        <v>1840</v>
+        <v>3323</v>
       </c>
       <c r="B2634" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2634" t="s">
         <v>2635</v>
@@ -47594,10 +47597,10 @@
     </row>
     <row r="2635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2635" t="s">
-        <v>3324</v>
+        <v>1840</v>
       </c>
       <c r="B2635" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2635" t="s">
         <v>2635</v>
@@ -47608,10 +47611,10 @@
     </row>
     <row r="2636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2636" t="s">
-        <v>1770</v>
+        <v>3324</v>
       </c>
       <c r="B2636" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2636" t="s">
         <v>2635</v>
@@ -47622,10 +47625,10 @@
     </row>
     <row r="2637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2637" t="s">
-        <v>3325</v>
+        <v>1770</v>
       </c>
       <c r="B2637" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2637" t="s">
         <v>2635</v>
@@ -47636,10 +47639,10 @@
     </row>
     <row r="2638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2638" t="s">
-        <v>1503</v>
+        <v>3325</v>
       </c>
       <c r="B2638" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2638" t="s">
         <v>2635</v>
@@ -47650,10 +47653,10 @@
     </row>
     <row r="2639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2639" t="s">
-        <v>3326</v>
+        <v>1503</v>
       </c>
       <c r="B2639" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2639" t="s">
         <v>2635</v>
@@ -47664,10 +47667,10 @@
     </row>
     <row r="2640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2640" t="s">
-        <v>704</v>
+        <v>3326</v>
       </c>
       <c r="B2640" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2640" t="s">
         <v>2635</v>
@@ -47678,10 +47681,10 @@
     </row>
     <row r="2641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2641" t="s">
-        <v>3327</v>
+        <v>704</v>
       </c>
       <c r="B2641" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2641" t="s">
         <v>2635</v>
@@ -47692,10 +47695,10 @@
     </row>
     <row r="2642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2642" t="s">
-        <v>101</v>
+        <v>3327</v>
       </c>
       <c r="B2642" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2642" t="s">
         <v>2635</v>
@@ -47706,10 +47709,10 @@
     </row>
     <row r="2643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2643" t="s">
-        <v>3328</v>
+        <v>101</v>
       </c>
       <c r="B2643" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2643" t="s">
         <v>2635</v>
@@ -47720,10 +47723,10 @@
     </row>
     <row r="2644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2644" t="s">
-        <v>1329</v>
+        <v>3328</v>
       </c>
       <c r="B2644" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2644" t="s">
         <v>2635</v>
@@ -47734,10 +47737,10 @@
     </row>
     <row r="2645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2645" t="s">
-        <v>3329</v>
+        <v>1329</v>
       </c>
       <c r="B2645" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2645" t="s">
         <v>2635</v>
@@ -47748,10 +47751,10 @@
     </row>
     <row r="2646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2646" t="s">
-        <v>497</v>
+        <v>3329</v>
       </c>
       <c r="B2646" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2646" t="s">
         <v>2635</v>
@@ -47762,10 +47765,10 @@
     </row>
     <row r="2647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2647" t="s">
-        <v>3330</v>
+        <v>497</v>
       </c>
       <c r="B2647" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2647" t="s">
         <v>2635</v>
@@ -47776,10 +47779,10 @@
     </row>
     <row r="2648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2648" t="s">
-        <v>1244</v>
+        <v>3330</v>
       </c>
       <c r="B2648" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2648" t="s">
         <v>2635</v>
@@ -47790,10 +47793,10 @@
     </row>
     <row r="2649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2649" t="s">
-        <v>3331</v>
+        <v>1244</v>
       </c>
       <c r="B2649" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2649" t="s">
         <v>2635</v>
@@ -47804,10 +47807,10 @@
     </row>
     <row r="2650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2650" t="s">
-        <v>504</v>
+        <v>3331</v>
       </c>
       <c r="B2650" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2650" t="s">
         <v>2635</v>
@@ -47818,10 +47821,10 @@
     </row>
     <row r="2651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2651" t="s">
-        <v>3332</v>
+        <v>504</v>
       </c>
       <c r="B2651" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2651" t="s">
         <v>2635</v>
@@ -47832,10 +47835,10 @@
     </row>
     <row r="2652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2652" t="s">
-        <v>125</v>
+        <v>3332</v>
       </c>
       <c r="B2652" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2652" t="s">
         <v>2635</v>
@@ -47846,10 +47849,10 @@
     </row>
     <row r="2653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2653" t="s">
-        <v>3333</v>
+        <v>125</v>
       </c>
       <c r="B2653" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2653" t="s">
         <v>2635</v>
@@ -47860,10 +47863,10 @@
     </row>
     <row r="2654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2654" t="s">
-        <v>609</v>
+        <v>3333</v>
       </c>
       <c r="B2654" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2654" t="s">
         <v>2635</v>
@@ -47874,10 +47877,10 @@
     </row>
     <row r="2655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2655" t="s">
-        <v>3334</v>
+        <v>609</v>
       </c>
       <c r="B2655" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2655" t="s">
         <v>2635</v>
@@ -47888,10 +47891,10 @@
     </row>
     <row r="2656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2656" t="s">
-        <v>960</v>
+        <v>3334</v>
       </c>
       <c r="B2656" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2656" t="s">
         <v>2635</v>
@@ -47902,10 +47905,10 @@
     </row>
     <row r="2657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2657" t="s">
-        <v>3335</v>
+        <v>960</v>
       </c>
       <c r="B2657" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2657" t="s">
         <v>2635</v>
@@ -47916,10 +47919,10 @@
     </row>
     <row r="2658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2658" t="s">
-        <v>1080</v>
+        <v>3335</v>
       </c>
       <c r="B2658" t="s">
-        <v>2157</v>
+        <v>2216</v>
       </c>
       <c r="C2658" t="s">
         <v>2635</v>
@@ -47930,10 +47933,10 @@
     </row>
     <row r="2659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2659" t="s">
-        <v>3136</v>
+        <v>1080</v>
       </c>
       <c r="B2659" t="s">
-        <v>2216</v>
+        <v>2157</v>
       </c>
       <c r="C2659" t="s">
         <v>2635</v>
@@ -47944,21 +47947,21 @@
     </row>
     <row r="2660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2660" t="s">
-        <v>3189</v>
+        <v>3136</v>
       </c>
       <c r="B2660" t="s">
-        <v>2325</v>
+        <v>2216</v>
       </c>
       <c r="C2660" t="s">
-        <v>2661</v>
+        <v>2635</v>
       </c>
       <c r="D2660" t="s">
-        <v>2747</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="2661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2661" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="B2661" t="s">
         <v>2325</v>
@@ -47972,7 +47975,7 @@
     </row>
     <row r="2662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2662" t="s">
-        <v>945</v>
+        <v>3187</v>
       </c>
       <c r="B2662" t="s">
         <v>2325</v>
@@ -47986,7 +47989,7 @@
     </row>
     <row r="2663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2663" t="s">
-        <v>1686</v>
+        <v>945</v>
       </c>
       <c r="B2663" t="s">
         <v>2325</v>
@@ -48000,7 +48003,7 @@
     </row>
     <row r="2664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2664" t="s">
-        <v>1056</v>
+        <v>1686</v>
       </c>
       <c r="B2664" t="s">
         <v>2325</v>
@@ -48014,7 +48017,7 @@
     </row>
     <row r="2665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2665" t="s">
-        <v>578</v>
+        <v>1056</v>
       </c>
       <c r="B2665" t="s">
         <v>2325</v>
@@ -48028,7 +48031,7 @@
     </row>
     <row r="2666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2666" t="s">
-        <v>3188</v>
+        <v>578</v>
       </c>
       <c r="B2666" t="s">
         <v>2325</v>
@@ -48042,7 +48045,7 @@
     </row>
     <row r="2667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2667" t="s">
-        <v>1337</v>
+        <v>3188</v>
       </c>
       <c r="B2667" t="s">
         <v>2325</v>
@@ -48056,7 +48059,7 @@
     </row>
     <row r="2668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2668" t="s">
-        <v>1871</v>
+        <v>1337</v>
       </c>
       <c r="B2668" t="s">
         <v>2325</v>
@@ -48070,52 +48073,52 @@
     </row>
     <row r="2669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2669" t="s">
-        <v>3143</v>
+        <v>1871</v>
       </c>
       <c r="B2669" t="s">
-        <v>3144</v>
+        <v>2325</v>
       </c>
       <c r="C2669" t="s">
-        <v>2645</v>
+        <v>2661</v>
       </c>
       <c r="D2669" t="s">
-        <v>2720</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="2670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2670" t="s">
-        <v>106</v>
+        <v>3143</v>
       </c>
       <c r="B2670" t="s">
-        <v>106</v>
+        <v>3144</v>
       </c>
       <c r="C2670" t="s">
-        <v>2636</v>
+        <v>2645</v>
       </c>
       <c r="D2670" t="s">
-        <v>2685</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="2671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2671" t="s">
-        <v>3422</v>
+        <v>106</v>
       </c>
       <c r="B2671" t="s">
-        <v>3422</v>
+        <v>106</v>
       </c>
       <c r="C2671" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="D2671" t="s">
-        <v>2703</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="2672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2672" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="B2672" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="C2672" t="s">
         <v>2634</v>
@@ -48126,10 +48129,10 @@
     </row>
     <row r="2673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2673" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="B2673" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="C2673" t="s">
         <v>2634</v>
@@ -48140,10 +48143,10 @@
     </row>
     <row r="2674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2674" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="B2674" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="C2674" t="s">
         <v>2634</v>
@@ -48154,10 +48157,10 @@
     </row>
     <row r="2675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2675" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="B2675" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="C2675" t="s">
         <v>2634</v>
@@ -48168,10 +48171,10 @@
     </row>
     <row r="2676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2676" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="B2676" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="C2676" t="s">
         <v>2634</v>
@@ -48182,24 +48185,24 @@
     </row>
     <row r="2677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2677" t="s">
-        <v>739</v>
+        <v>3427</v>
       </c>
       <c r="B2677" t="s">
-        <v>739</v>
+        <v>3427</v>
       </c>
       <c r="C2677" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="D2677" t="s">
-        <v>2685</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="2678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2678" t="s">
-        <v>450</v>
+        <v>739</v>
       </c>
       <c r="B2678" t="s">
-        <v>450</v>
+        <v>739</v>
       </c>
       <c r="C2678" t="s">
         <v>2636</v>
@@ -48210,10 +48213,10 @@
     </row>
     <row r="2679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2679" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="B2679" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="C2679" t="s">
         <v>2636</v>
@@ -48224,10 +48227,10 @@
     </row>
     <row r="2680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2680" t="s">
-        <v>1723</v>
+        <v>419</v>
       </c>
       <c r="B2680" t="s">
-        <v>1723</v>
+        <v>419</v>
       </c>
       <c r="C2680" t="s">
         <v>2636</v>
@@ -48238,10 +48241,10 @@
     </row>
     <row r="2681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2681" t="s">
-        <v>2093</v>
+        <v>1723</v>
       </c>
       <c r="B2681" t="s">
-        <v>2093</v>
+        <v>1723</v>
       </c>
       <c r="C2681" t="s">
         <v>2636</v>
@@ -48252,10 +48255,10 @@
     </row>
     <row r="2682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2682" t="s">
-        <v>241</v>
+        <v>2093</v>
       </c>
       <c r="B2682" t="s">
-        <v>241</v>
+        <v>2093</v>
       </c>
       <c r="C2682" t="s">
         <v>2636</v>
@@ -48266,10 +48269,10 @@
     </row>
     <row r="2683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2683" t="s">
-        <v>821</v>
+        <v>241</v>
       </c>
       <c r="B2683" t="s">
-        <v>821</v>
+        <v>241</v>
       </c>
       <c r="C2683" t="s">
         <v>2636</v>
@@ -48280,10 +48283,10 @@
     </row>
     <row r="2684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2684" t="s">
-        <v>1894</v>
+        <v>821</v>
       </c>
       <c r="B2684" t="s">
-        <v>1894</v>
+        <v>821</v>
       </c>
       <c r="C2684" t="s">
         <v>2636</v>
@@ -48294,10 +48297,10 @@
     </row>
     <row r="2685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2685" t="s">
-        <v>1138</v>
+        <v>1894</v>
       </c>
       <c r="B2685" t="s">
-        <v>1138</v>
+        <v>1894</v>
       </c>
       <c r="C2685" t="s">
         <v>2636</v>
@@ -48308,10 +48311,10 @@
     </row>
     <row r="2686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2686" t="s">
-        <v>1395</v>
+        <v>1138</v>
       </c>
       <c r="B2686" t="s">
-        <v>1395</v>
+        <v>1138</v>
       </c>
       <c r="C2686" t="s">
         <v>2636</v>
@@ -48322,10 +48325,10 @@
     </row>
     <row r="2687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2687" t="s">
-        <v>2001</v>
+        <v>1395</v>
       </c>
       <c r="B2687" t="s">
-        <v>2001</v>
+        <v>1395</v>
       </c>
       <c r="C2687" t="s">
         <v>2636</v>
@@ -48336,10 +48339,10 @@
     </row>
     <row r="2688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2688" t="s">
-        <v>364</v>
+        <v>2001</v>
       </c>
       <c r="B2688" t="s">
-        <v>364</v>
+        <v>2001</v>
       </c>
       <c r="C2688" t="s">
         <v>2636</v>
@@ -48350,10 +48353,10 @@
     </row>
     <row r="2689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2689" t="s">
-        <v>1657</v>
+        <v>364</v>
       </c>
       <c r="B2689" t="s">
-        <v>1657</v>
+        <v>364</v>
       </c>
       <c r="C2689" t="s">
         <v>2636</v>
@@ -48364,10 +48367,10 @@
     </row>
     <row r="2690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2690" t="s">
-        <v>1820</v>
+        <v>1657</v>
       </c>
       <c r="B2690" t="s">
-        <v>1820</v>
+        <v>1657</v>
       </c>
       <c r="C2690" t="s">
         <v>2636</v>
@@ -48378,10 +48381,10 @@
     </row>
     <row r="2691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2691" t="s">
-        <v>770</v>
+        <v>1820</v>
       </c>
       <c r="B2691" t="s">
-        <v>770</v>
+        <v>1820</v>
       </c>
       <c r="C2691" t="s">
         <v>2636</v>
@@ -48392,10 +48395,10 @@
     </row>
     <row r="2692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2692" t="s">
-        <v>170</v>
+        <v>770</v>
       </c>
       <c r="B2692" t="s">
-        <v>170</v>
+        <v>770</v>
       </c>
       <c r="C2692" t="s">
         <v>2636</v>
@@ -48406,10 +48409,10 @@
     </row>
     <row r="2693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2693" t="s">
-        <v>3134</v>
+        <v>170</v>
       </c>
       <c r="B2693" t="s">
-        <v>3135</v>
+        <v>170</v>
       </c>
       <c r="C2693" t="s">
         <v>2636</v>
@@ -48420,16 +48423,16 @@
     </row>
     <row r="2694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2694" t="s">
-        <v>3428</v>
+        <v>3134</v>
       </c>
       <c r="B2694" t="s">
-        <v>3428</v>
+        <v>3135</v>
       </c>
       <c r="C2694" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="D2694" t="s">
-        <v>2703</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="2695" spans="1:4" x14ac:dyDescent="0.2">
@@ -48532,10 +48535,10 @@
     </row>
     <row r="2702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2702" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="B2702" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="C2702" t="s">
         <v>2634</v>
@@ -48686,21 +48689,21 @@
     </row>
     <row r="2713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2713" t="s">
-        <v>1812</v>
+        <v>3429</v>
       </c>
       <c r="B2713" t="s">
-        <v>2278</v>
+        <v>3429</v>
       </c>
       <c r="C2713" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="D2713" t="s">
-        <v>2739</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="2714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2714" t="s">
-        <v>558</v>
+        <v>1812</v>
       </c>
       <c r="B2714" t="s">
         <v>2278</v>
@@ -48714,7 +48717,7 @@
     </row>
     <row r="2715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2715" t="s">
-        <v>463</v>
+        <v>558</v>
       </c>
       <c r="B2715" t="s">
         <v>2278</v>
@@ -48728,7 +48731,7 @@
     </row>
     <row r="2716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2716" t="s">
-        <v>1922</v>
+        <v>463</v>
       </c>
       <c r="B2716" t="s">
         <v>2278</v>
@@ -48742,7 +48745,7 @@
     </row>
     <row r="2717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2717" t="s">
-        <v>436</v>
+        <v>1922</v>
       </c>
       <c r="B2717" t="s">
         <v>2278</v>
@@ -48756,7 +48759,7 @@
     </row>
     <row r="2718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2718" t="s">
-        <v>588</v>
+        <v>436</v>
       </c>
       <c r="B2718" t="s">
         <v>2278</v>
@@ -48770,7 +48773,7 @@
     </row>
     <row r="2719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2719" t="s">
-        <v>2030</v>
+        <v>588</v>
       </c>
       <c r="B2719" t="s">
         <v>2278</v>
@@ -48784,7 +48787,7 @@
     </row>
     <row r="2720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2720" t="s">
-        <v>366</v>
+        <v>2030</v>
       </c>
       <c r="B2720" t="s">
         <v>2278</v>
@@ -48798,7 +48801,7 @@
     </row>
     <row r="2721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2721" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B2721" t="s">
         <v>2278</v>
@@ -48812,7 +48815,7 @@
     </row>
     <row r="2722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2722" t="s">
-        <v>681</v>
+        <v>359</v>
       </c>
       <c r="B2722" t="s">
         <v>2278</v>
@@ -48826,10 +48829,10 @@
     </row>
     <row r="2723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2723" t="s">
-        <v>1456</v>
+        <v>681</v>
       </c>
       <c r="B2723" t="s">
-        <v>2295</v>
+        <v>2278</v>
       </c>
       <c r="C2723" t="s">
         <v>2636</v>
@@ -48840,10 +48843,10 @@
     </row>
     <row r="2724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2724" t="s">
-        <v>1828</v>
+        <v>1456</v>
       </c>
       <c r="B2724" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2724" t="s">
         <v>2636</v>
@@ -48854,10 +48857,10 @@
     </row>
     <row r="2725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2725" t="s">
-        <v>707</v>
+        <v>1828</v>
       </c>
       <c r="B2725" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2725" t="s">
         <v>2636</v>
@@ -48868,10 +48871,10 @@
     </row>
     <row r="2726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2726" t="s">
-        <v>180</v>
+        <v>707</v>
       </c>
       <c r="B2726" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2726" t="s">
         <v>2636</v>
@@ -48882,10 +48885,10 @@
     </row>
     <row r="2727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2727" t="s">
-        <v>531</v>
+        <v>180</v>
       </c>
       <c r="B2727" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2727" t="s">
         <v>2636</v>
@@ -48896,10 +48899,10 @@
     </row>
     <row r="2728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2728" t="s">
-        <v>1120</v>
+        <v>531</v>
       </c>
       <c r="B2728" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2728" t="s">
         <v>2636</v>
@@ -48910,10 +48913,10 @@
     </row>
     <row r="2729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2729" t="s">
-        <v>1083</v>
+        <v>1120</v>
       </c>
       <c r="B2729" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2729" t="s">
         <v>2636</v>
@@ -48924,10 +48927,10 @@
     </row>
     <row r="2730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2730" t="s">
-        <v>718</v>
+        <v>1083</v>
       </c>
       <c r="B2730" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2730" t="s">
         <v>2636</v>
@@ -48938,10 +48941,10 @@
     </row>
     <row r="2731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2731" t="s">
-        <v>1971</v>
+        <v>718</v>
       </c>
       <c r="B2731" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2731" t="s">
         <v>2636</v>
@@ -48952,10 +48955,10 @@
     </row>
     <row r="2732" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2732" t="s">
-        <v>997</v>
+        <v>1971</v>
       </c>
       <c r="B2732" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2732" t="s">
         <v>2636</v>
@@ -48966,10 +48969,10 @@
     </row>
     <row r="2733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2733" t="s">
-        <v>1128</v>
+        <v>997</v>
       </c>
       <c r="B2733" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2733" t="s">
         <v>2636</v>
@@ -48980,10 +48983,10 @@
     </row>
     <row r="2734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2734" t="s">
-        <v>818</v>
+        <v>1128</v>
       </c>
       <c r="B2734" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2734" t="s">
         <v>2636</v>
@@ -48994,10 +48997,10 @@
     </row>
     <row r="2735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2735" t="s">
-        <v>725</v>
+        <v>818</v>
       </c>
       <c r="B2735" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2735" t="s">
         <v>2636</v>
@@ -49008,10 +49011,10 @@
     </row>
     <row r="2736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2736" t="s">
-        <v>841</v>
+        <v>725</v>
       </c>
       <c r="B2736" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2736" t="s">
         <v>2636</v>
@@ -49022,10 +49025,10 @@
     </row>
     <row r="2737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2737" t="s">
-        <v>1462</v>
+        <v>841</v>
       </c>
       <c r="B2737" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2737" t="s">
         <v>2636</v>
@@ -49036,10 +49039,10 @@
     </row>
     <row r="2738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2738" t="s">
-        <v>1819</v>
+        <v>1462</v>
       </c>
       <c r="B2738" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2738" t="s">
         <v>2636</v>
@@ -49050,10 +49053,10 @@
     </row>
     <row r="2739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2739" t="s">
-        <v>1155</v>
+        <v>1819</v>
       </c>
       <c r="B2739" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2739" t="s">
         <v>2636</v>
@@ -49064,10 +49067,10 @@
     </row>
     <row r="2740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2740" t="s">
-        <v>1279</v>
+        <v>1155</v>
       </c>
       <c r="B2740" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2740" t="s">
         <v>2636</v>
@@ -49078,10 +49081,10 @@
     </row>
     <row r="2741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2741" t="s">
-        <v>1306</v>
+        <v>1279</v>
       </c>
       <c r="B2741" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2741" t="s">
         <v>2636</v>
@@ -49092,10 +49095,10 @@
     </row>
     <row r="2742" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2742" t="s">
-        <v>761</v>
+        <v>1306</v>
       </c>
       <c r="B2742" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2742" t="s">
         <v>2636</v>
@@ -49106,10 +49109,10 @@
     </row>
     <row r="2743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2743" t="s">
-        <v>1554</v>
+        <v>761</v>
       </c>
       <c r="B2743" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2743" t="s">
         <v>2636</v>
@@ -49120,10 +49123,10 @@
     </row>
     <row r="2744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2744" t="s">
-        <v>1595</v>
+        <v>1554</v>
       </c>
       <c r="B2744" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2744" t="s">
         <v>2636</v>
@@ -49134,10 +49137,10 @@
     </row>
     <row r="2745" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2745" t="s">
-        <v>389</v>
+        <v>1595</v>
       </c>
       <c r="B2745" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2745" t="s">
         <v>2636</v>
@@ -49148,10 +49151,10 @@
     </row>
     <row r="2746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2746" t="s">
-        <v>1738</v>
+        <v>389</v>
       </c>
       <c r="B2746" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2746" t="s">
         <v>2636</v>
@@ -49162,7 +49165,7 @@
     </row>
     <row r="2747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2747" t="s">
-        <v>82</v>
+        <v>1738</v>
       </c>
       <c r="B2747" t="s">
         <v>2171</v>
@@ -49176,7 +49179,7 @@
     </row>
     <row r="2748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2748" t="s">
-        <v>1151</v>
+        <v>82</v>
       </c>
       <c r="B2748" t="s">
         <v>2171</v>
@@ -49190,7 +49193,7 @@
     </row>
     <row r="2749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2749" t="s">
-        <v>1227</v>
+        <v>1151</v>
       </c>
       <c r="B2749" t="s">
         <v>2171</v>
@@ -49204,7 +49207,7 @@
     </row>
     <row r="2750" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2750" t="s">
-        <v>71</v>
+        <v>1227</v>
       </c>
       <c r="B2750" t="s">
         <v>2171</v>
@@ -49218,7 +49221,7 @@
     </row>
     <row r="2751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2751" t="s">
-        <v>314</v>
+        <v>71</v>
       </c>
       <c r="B2751" t="s">
         <v>2171</v>
@@ -49232,7 +49235,7 @@
     </row>
     <row r="2752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2752" t="s">
-        <v>1186</v>
+        <v>314</v>
       </c>
       <c r="B2752" t="s">
         <v>2171</v>
@@ -49246,10 +49249,10 @@
     </row>
     <row r="2753" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2753" t="s">
-        <v>2095</v>
+        <v>1186</v>
       </c>
       <c r="B2753" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2753" t="s">
         <v>2636</v>
@@ -49260,10 +49263,10 @@
     </row>
     <row r="2754" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2754" t="s">
-        <v>1542</v>
+        <v>2095</v>
       </c>
       <c r="B2754" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2754" t="s">
         <v>2636</v>
@@ -49274,10 +49277,10 @@
     </row>
     <row r="2755" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2755" t="s">
-        <v>349</v>
+        <v>1542</v>
       </c>
       <c r="B2755" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2755" t="s">
         <v>2636</v>
@@ -49288,10 +49291,10 @@
     </row>
     <row r="2756" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2756" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="B2756" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2756" t="s">
         <v>2636</v>
@@ -49302,10 +49305,10 @@
     </row>
     <row r="2757" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2757" t="s">
-        <v>1589</v>
+        <v>237</v>
       </c>
       <c r="B2757" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2757" t="s">
         <v>2636</v>
@@ -49316,10 +49319,10 @@
     </row>
     <row r="2758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2758" t="s">
-        <v>279</v>
+        <v>1589</v>
       </c>
       <c r="B2758" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2758" t="s">
         <v>2636</v>
@@ -49330,10 +49333,10 @@
     </row>
     <row r="2759" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2759" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="B2759" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2759" t="s">
         <v>2636</v>
@@ -49344,10 +49347,10 @@
     </row>
     <row r="2760" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2760" t="s">
-        <v>1850</v>
+        <v>79</v>
       </c>
       <c r="B2760" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2760" t="s">
         <v>2636</v>
@@ -49358,10 +49361,10 @@
     </row>
     <row r="2761" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2761" t="s">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B2761" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2761" t="s">
         <v>2636</v>
@@ -49372,10 +49375,10 @@
     </row>
     <row r="2762" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2762" t="s">
-        <v>1682</v>
+        <v>1860</v>
       </c>
       <c r="B2762" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2762" t="s">
         <v>2636</v>
@@ -49386,10 +49389,10 @@
     </row>
     <row r="2763" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2763" t="s">
-        <v>290</v>
+        <v>1682</v>
       </c>
       <c r="B2763" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2763" t="s">
         <v>2636</v>
@@ -49400,10 +49403,10 @@
     </row>
     <row r="2764" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2764" t="s">
-        <v>1622</v>
+        <v>290</v>
       </c>
       <c r="B2764" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2764" t="s">
         <v>2636</v>
@@ -49414,10 +49417,10 @@
     </row>
     <row r="2765" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2765" t="s">
-        <v>920</v>
+        <v>1622</v>
       </c>
       <c r="B2765" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2765" t="s">
         <v>2636</v>
@@ -49428,10 +49431,10 @@
     </row>
     <row r="2766" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2766" t="s">
-        <v>2076</v>
+        <v>920</v>
       </c>
       <c r="B2766" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2766" t="s">
         <v>2636</v>
@@ -49442,10 +49445,10 @@
     </row>
     <row r="2767" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2767" t="s">
-        <v>1608</v>
+        <v>2076</v>
       </c>
       <c r="B2767" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2767" t="s">
         <v>2636</v>
@@ -49456,10 +49459,10 @@
     </row>
     <row r="2768" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2768" t="s">
-        <v>105</v>
+        <v>1608</v>
       </c>
       <c r="B2768" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2768" t="s">
         <v>2636</v>
@@ -49470,10 +49473,10 @@
     </row>
     <row r="2769" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2769" t="s">
-        <v>482</v>
+        <v>105</v>
       </c>
       <c r="B2769" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2769" t="s">
         <v>2636</v>
@@ -49484,10 +49487,10 @@
     </row>
     <row r="2770" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2770" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="B2770" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2770" t="s">
         <v>2636</v>
@@ -49498,10 +49501,10 @@
     </row>
     <row r="2771" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2771" t="s">
-        <v>1191</v>
+        <v>452</v>
       </c>
       <c r="B2771" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2771" t="s">
         <v>2636</v>
@@ -49512,10 +49515,10 @@
     </row>
     <row r="2772" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2772" t="s">
-        <v>1140</v>
+        <v>1191</v>
       </c>
       <c r="B2772" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2772" t="s">
         <v>2636</v>
@@ -49526,10 +49529,10 @@
     </row>
     <row r="2773" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2773" t="s">
-        <v>410</v>
+        <v>1140</v>
       </c>
       <c r="B2773" t="s">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="C2773" t="s">
         <v>2636</v>
@@ -49540,10 +49543,10 @@
     </row>
     <row r="2774" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2774" t="s">
-        <v>283</v>
+        <v>410</v>
       </c>
       <c r="B2774" t="s">
-        <v>2255</v>
+        <v>2295</v>
       </c>
       <c r="C2774" t="s">
         <v>2636</v>
@@ -49554,10 +49557,10 @@
     </row>
     <row r="2775" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2775" t="s">
-        <v>519</v>
+        <v>283</v>
       </c>
       <c r="B2775" t="s">
-        <v>2176</v>
+        <v>2255</v>
       </c>
       <c r="C2775" t="s">
         <v>2636</v>
@@ -49568,10 +49571,10 @@
     </row>
     <row r="2776" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2776" t="s">
-        <v>1665</v>
+        <v>519</v>
       </c>
       <c r="B2776" t="s">
-        <v>2171</v>
+        <v>2176</v>
       </c>
       <c r="C2776" t="s">
         <v>2636</v>
@@ -49582,10 +49585,10 @@
     </row>
     <row r="2777" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2777" t="s">
-        <v>965</v>
+        <v>1665</v>
       </c>
       <c r="B2777" t="s">
-        <v>2278</v>
+        <v>2171</v>
       </c>
       <c r="C2777" t="s">
         <v>2636</v>
@@ -49596,7 +49599,7 @@
     </row>
     <row r="2778" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2778" t="s">
-        <v>1598</v>
+        <v>965</v>
       </c>
       <c r="B2778" t="s">
         <v>2278</v>
@@ -49610,7 +49613,7 @@
     </row>
     <row r="2779" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2779" t="s">
-        <v>1081</v>
+        <v>1598</v>
       </c>
       <c r="B2779" t="s">
         <v>2278</v>
@@ -49624,7 +49627,7 @@
     </row>
     <row r="2780" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2780" t="s">
-        <v>874</v>
+        <v>1081</v>
       </c>
       <c r="B2780" t="s">
         <v>2278</v>
@@ -49638,7 +49641,7 @@
     </row>
     <row r="2781" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2781" t="s">
-        <v>486</v>
+        <v>874</v>
       </c>
       <c r="B2781" t="s">
         <v>2278</v>
@@ -49652,7 +49655,7 @@
     </row>
     <row r="2782" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2782" t="s">
-        <v>1897</v>
+        <v>486</v>
       </c>
       <c r="B2782" t="s">
         <v>2278</v>
@@ -49666,10 +49669,10 @@
     </row>
     <row r="2783" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2783" t="s">
-        <v>1360</v>
+        <v>1897</v>
       </c>
       <c r="B2783" t="s">
-        <v>2171</v>
+        <v>2278</v>
       </c>
       <c r="C2783" t="s">
         <v>2636</v>
@@ -49680,7 +49683,7 @@
     </row>
     <row r="2784" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2784" t="s">
-        <v>1865</v>
+        <v>1360</v>
       </c>
       <c r="B2784" t="s">
         <v>2171</v>
@@ -49694,10 +49697,10 @@
     </row>
     <row r="2785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2785" t="s">
-        <v>3142</v>
+        <v>1865</v>
       </c>
       <c r="B2785" t="s">
-        <v>2278</v>
+        <v>2171</v>
       </c>
       <c r="C2785" t="s">
         <v>2636</v>
@@ -49708,21 +49711,21 @@
     </row>
     <row r="2786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2786" t="s">
-        <v>233</v>
+        <v>3142</v>
       </c>
       <c r="B2786" t="s">
-        <v>2150</v>
+        <v>2278</v>
       </c>
       <c r="C2786" t="s">
-        <v>2628</v>
+        <v>2636</v>
       </c>
       <c r="D2786" t="s">
-        <v>2685</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="2787" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2787" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="B2787" t="s">
         <v>2150</v>
@@ -49736,7 +49739,7 @@
     </row>
     <row r="2788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2788" t="s">
-        <v>549</v>
+        <v>36</v>
       </c>
       <c r="B2788" t="s">
         <v>2150</v>
@@ -49750,7 +49753,7 @@
     </row>
     <row r="2789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2789" t="s">
-        <v>1694</v>
+        <v>549</v>
       </c>
       <c r="B2789" t="s">
         <v>2150</v>
@@ -49764,7 +49767,7 @@
     </row>
     <row r="2790" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2790" t="s">
-        <v>961</v>
+        <v>1694</v>
       </c>
       <c r="B2790" t="s">
         <v>2150</v>
@@ -49778,7 +49781,7 @@
     </row>
     <row r="2791" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2791" t="s">
-        <v>1278</v>
+        <v>961</v>
       </c>
       <c r="B2791" t="s">
         <v>2150</v>
@@ -49792,7 +49795,7 @@
     </row>
     <row r="2792" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2792" t="s">
-        <v>897</v>
+        <v>1278</v>
       </c>
       <c r="B2792" t="s">
         <v>2150</v>
@@ -49806,7 +49809,7 @@
     </row>
     <row r="2793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2793" t="s">
-        <v>1003</v>
+        <v>897</v>
       </c>
       <c r="B2793" t="s">
         <v>2150</v>
@@ -49820,7 +49823,7 @@
     </row>
     <row r="2794" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2794" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="B2794" t="s">
         <v>2150</v>
@@ -49834,10 +49837,10 @@
     </row>
     <row r="2795" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2795" t="s">
-        <v>326</v>
+        <v>1013</v>
       </c>
       <c r="B2795" t="s">
-        <v>2199</v>
+        <v>2150</v>
       </c>
       <c r="C2795" t="s">
         <v>2628</v>
@@ -49848,10 +49851,10 @@
     </row>
     <row r="2796" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2796" t="s">
-        <v>688</v>
+        <v>326</v>
       </c>
       <c r="B2796" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2796" t="s">
         <v>2628</v>
@@ -49862,10 +49865,10 @@
     </row>
     <row r="2797" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2797" t="s">
-        <v>378</v>
+        <v>688</v>
       </c>
       <c r="B2797" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2797" t="s">
         <v>2628</v>
@@ -49876,10 +49879,10 @@
     </row>
     <row r="2798" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2798" t="s">
-        <v>932</v>
+        <v>378</v>
       </c>
       <c r="B2798" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2798" t="s">
         <v>2628</v>
@@ -49890,10 +49893,10 @@
     </row>
     <row r="2799" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2799" t="s">
-        <v>1179</v>
+        <v>932</v>
       </c>
       <c r="B2799" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2799" t="s">
         <v>2628</v>
@@ -49904,10 +49907,10 @@
     </row>
     <row r="2800" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2800" t="s">
-        <v>140</v>
+        <v>1179</v>
       </c>
       <c r="B2800" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2800" t="s">
         <v>2628</v>
@@ -49918,10 +49921,10 @@
     </row>
     <row r="2801" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2801" t="s">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="B2801" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2801" t="s">
         <v>2628</v>
@@ -49932,10 +49935,10 @@
     </row>
     <row r="2802" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2802" t="s">
-        <v>1181</v>
+        <v>338</v>
       </c>
       <c r="B2802" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2802" t="s">
         <v>2628</v>
@@ -49946,10 +49949,10 @@
     </row>
     <row r="2803" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2803" t="s">
-        <v>1794</v>
+        <v>1181</v>
       </c>
       <c r="B2803" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2803" t="s">
         <v>2628</v>
@@ -49960,10 +49963,10 @@
     </row>
     <row r="2804" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2804" t="s">
-        <v>496</v>
+        <v>1794</v>
       </c>
       <c r="B2804" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2804" t="s">
         <v>2628</v>
@@ -49974,10 +49977,10 @@
     </row>
     <row r="2805" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2805" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="B2805" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2805" t="s">
         <v>2628</v>
@@ -49988,10 +49991,10 @@
     </row>
     <row r="2806" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2806" t="s">
-        <v>2046</v>
+        <v>121</v>
       </c>
       <c r="B2806" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2806" t="s">
         <v>2628</v>
@@ -50002,10 +50005,10 @@
     </row>
     <row r="2807" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2807" t="s">
-        <v>1836</v>
+        <v>2046</v>
       </c>
       <c r="B2807" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2807" t="s">
         <v>2628</v>
@@ -50016,10 +50019,10 @@
     </row>
     <row r="2808" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2808" t="s">
-        <v>637</v>
+        <v>1836</v>
       </c>
       <c r="B2808" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2808" t="s">
         <v>2628</v>
@@ -50030,10 +50033,10 @@
     </row>
     <row r="2809" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2809" t="s">
-        <v>858</v>
+        <v>637</v>
       </c>
       <c r="B2809" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2809" t="s">
         <v>2628</v>
@@ -50044,10 +50047,10 @@
     </row>
     <row r="2810" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2810" t="s">
-        <v>1692</v>
+        <v>858</v>
       </c>
       <c r="B2810" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2810" t="s">
         <v>2628</v>
@@ -50058,10 +50061,10 @@
     </row>
     <row r="2811" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2811" t="s">
-        <v>803</v>
+        <v>1692</v>
       </c>
       <c r="B2811" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2811" t="s">
         <v>2628</v>
@@ -50072,10 +50075,10 @@
     </row>
     <row r="2812" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2812" t="s">
-        <v>1911</v>
+        <v>803</v>
       </c>
       <c r="B2812" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2812" t="s">
         <v>2628</v>
@@ -50086,10 +50089,10 @@
     </row>
     <row r="2813" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2813" t="s">
-        <v>179</v>
+        <v>1911</v>
       </c>
       <c r="B2813" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2813" t="s">
         <v>2628</v>
@@ -50100,10 +50103,10 @@
     </row>
     <row r="2814" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2814" t="s">
-        <v>456</v>
+        <v>179</v>
       </c>
       <c r="B2814" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2814" t="s">
         <v>2628</v>
@@ -50114,10 +50117,10 @@
     </row>
     <row r="2815" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2815" t="s">
-        <v>1768</v>
+        <v>456</v>
       </c>
       <c r="B2815" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2815" t="s">
         <v>2628</v>
@@ -50128,10 +50131,10 @@
     </row>
     <row r="2816" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2816" t="s">
-        <v>90</v>
+        <v>1768</v>
       </c>
       <c r="B2816" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2816" t="s">
         <v>2628</v>
@@ -50142,10 +50145,10 @@
     </row>
     <row r="2817" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2817" t="s">
-        <v>1215</v>
+        <v>90</v>
       </c>
       <c r="B2817" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2817" t="s">
         <v>2628</v>
@@ -50156,10 +50159,10 @@
     </row>
     <row r="2818" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2818" t="s">
-        <v>1002</v>
+        <v>1215</v>
       </c>
       <c r="B2818" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2818" t="s">
         <v>2628</v>
@@ -50170,10 +50173,10 @@
     </row>
     <row r="2819" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2819" t="s">
-        <v>889</v>
+        <v>1002</v>
       </c>
       <c r="B2819" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2819" t="s">
         <v>2628</v>
@@ -50184,10 +50187,10 @@
     </row>
     <row r="2820" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2820" t="s">
-        <v>1664</v>
+        <v>889</v>
       </c>
       <c r="B2820" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2820" t="s">
         <v>2628</v>
@@ -50198,10 +50201,10 @@
     </row>
     <row r="2821" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2821" t="s">
-        <v>987</v>
+        <v>1664</v>
       </c>
       <c r="B2821" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2821" t="s">
         <v>2628</v>
@@ -50212,10 +50215,10 @@
     </row>
     <row r="2822" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2822" t="s">
-        <v>2059</v>
+        <v>987</v>
       </c>
       <c r="B2822" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2822" t="s">
         <v>2628</v>
@@ -50226,10 +50229,10 @@
     </row>
     <row r="2823" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2823" t="s">
-        <v>2035</v>
+        <v>2059</v>
       </c>
       <c r="B2823" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2823" t="s">
         <v>2628</v>
@@ -50240,10 +50243,10 @@
     </row>
     <row r="2824" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2824" t="s">
-        <v>1063</v>
+        <v>2035</v>
       </c>
       <c r="B2824" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2824" t="s">
         <v>2628</v>
@@ -50254,10 +50257,10 @@
     </row>
     <row r="2825" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2825" t="s">
-        <v>1687</v>
+        <v>1063</v>
       </c>
       <c r="B2825" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2825" t="s">
         <v>2628</v>
@@ -50268,10 +50271,10 @@
     </row>
     <row r="2826" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2826" t="s">
-        <v>561</v>
+        <v>1687</v>
       </c>
       <c r="B2826" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2826" t="s">
         <v>2628</v>
@@ -50282,10 +50285,10 @@
     </row>
     <row r="2827" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2827" t="s">
-        <v>1826</v>
+        <v>561</v>
       </c>
       <c r="B2827" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2827" t="s">
         <v>2628</v>
@@ -50296,10 +50299,10 @@
     </row>
     <row r="2828" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2828" t="s">
-        <v>1101</v>
+        <v>1826</v>
       </c>
       <c r="B2828" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2828" t="s">
         <v>2628</v>
@@ -50310,10 +50313,10 @@
     </row>
     <row r="2829" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2829" t="s">
-        <v>1352</v>
+        <v>1101</v>
       </c>
       <c r="B2829" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2829" t="s">
         <v>2628</v>
@@ -50324,10 +50327,10 @@
     </row>
     <row r="2830" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2830" t="s">
-        <v>613</v>
+        <v>1352</v>
       </c>
       <c r="B2830" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2830" t="s">
         <v>2628</v>
@@ -50338,10 +50341,10 @@
     </row>
     <row r="2831" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2831" t="s">
-        <v>1366</v>
+        <v>613</v>
       </c>
       <c r="B2831" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2831" t="s">
         <v>2628</v>
@@ -50352,10 +50355,10 @@
     </row>
     <row r="2832" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2832" t="s">
-        <v>1537</v>
+        <v>1366</v>
       </c>
       <c r="B2832" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2832" t="s">
         <v>2628</v>
@@ -50366,10 +50369,10 @@
     </row>
     <row r="2833" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2833" t="s">
-        <v>1048</v>
+        <v>1537</v>
       </c>
       <c r="B2833" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2833" t="s">
         <v>2628</v>
@@ -50380,10 +50383,10 @@
     </row>
     <row r="2834" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2834" t="s">
-        <v>1701</v>
+        <v>1048</v>
       </c>
       <c r="B2834" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2834" t="s">
         <v>2628</v>
@@ -50394,10 +50397,10 @@
     </row>
     <row r="2835" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2835" t="s">
-        <v>812</v>
+        <v>1701</v>
       </c>
       <c r="B2835" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2835" t="s">
         <v>2628</v>
@@ -50408,10 +50411,10 @@
     </row>
     <row r="2836" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2836" t="s">
-        <v>1804</v>
+        <v>812</v>
       </c>
       <c r="B2836" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2836" t="s">
         <v>2628</v>
@@ -50422,10 +50425,10 @@
     </row>
     <row r="2837" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2837" t="s">
-        <v>899</v>
+        <v>1804</v>
       </c>
       <c r="B2837" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2837" t="s">
         <v>2628</v>
@@ -50436,10 +50439,10 @@
     </row>
     <row r="2838" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2838" t="s">
-        <v>1053</v>
+        <v>899</v>
       </c>
       <c r="B2838" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2838" t="s">
         <v>2628</v>
@@ -50450,10 +50453,10 @@
     </row>
     <row r="2839" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2839" t="s">
-        <v>2102</v>
+        <v>1053</v>
       </c>
       <c r="B2839" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2839" t="s">
         <v>2628</v>
@@ -50464,10 +50467,10 @@
     </row>
     <row r="2840" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2840" t="s">
-        <v>1421</v>
+        <v>2102</v>
       </c>
       <c r="B2840" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2840" t="s">
         <v>2628</v>
@@ -50478,10 +50481,10 @@
     </row>
     <row r="2841" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2841" t="s">
-        <v>905</v>
+        <v>1421</v>
       </c>
       <c r="B2841" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2841" t="s">
         <v>2628</v>
@@ -50492,10 +50495,10 @@
     </row>
     <row r="2842" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2842" t="s">
-        <v>123</v>
+        <v>905</v>
       </c>
       <c r="B2842" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2842" t="s">
         <v>2628</v>
@@ -50506,10 +50509,10 @@
     </row>
     <row r="2843" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2843" t="s">
-        <v>628</v>
+        <v>123</v>
       </c>
       <c r="B2843" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2843" t="s">
         <v>2628</v>
@@ -50520,10 +50523,10 @@
     </row>
     <row r="2844" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2844" t="s">
-        <v>404</v>
+        <v>628</v>
       </c>
       <c r="B2844" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2844" t="s">
         <v>2628</v>
@@ -50534,10 +50537,10 @@
     </row>
     <row r="2845" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2845" t="s">
-        <v>764</v>
+        <v>404</v>
       </c>
       <c r="B2845" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2845" t="s">
         <v>2628</v>
@@ -50548,10 +50551,10 @@
     </row>
     <row r="2846" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2846" t="s">
-        <v>1564</v>
+        <v>764</v>
       </c>
       <c r="B2846" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2846" t="s">
         <v>2628</v>
@@ -50562,10 +50565,10 @@
     </row>
     <row r="2847" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2847" t="s">
-        <v>159</v>
+        <v>1564</v>
       </c>
       <c r="B2847" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2847" t="s">
         <v>2628</v>
@@ -50576,10 +50579,10 @@
     </row>
     <row r="2848" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2848" t="s">
-        <v>1397</v>
+        <v>159</v>
       </c>
       <c r="B2848" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2848" t="s">
         <v>2628</v>
@@ -50590,10 +50593,10 @@
     </row>
     <row r="2849" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2849" t="s">
-        <v>294</v>
+        <v>1397</v>
       </c>
       <c r="B2849" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2849" t="s">
         <v>2628</v>
@@ -50604,10 +50607,10 @@
     </row>
     <row r="2850" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2850" t="s">
-        <v>1050</v>
+        <v>294</v>
       </c>
       <c r="B2850" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2850" t="s">
         <v>2628</v>
@@ -50618,10 +50621,10 @@
     </row>
     <row r="2851" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2851" t="s">
-        <v>274</v>
+        <v>1050</v>
       </c>
       <c r="B2851" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2851" t="s">
         <v>2628</v>
@@ -50632,10 +50635,10 @@
     </row>
     <row r="2852" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2852" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="B2852" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2852" t="s">
         <v>2628</v>
@@ -50646,10 +50649,10 @@
     </row>
     <row r="2853" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2853" t="s">
-        <v>1398</v>
+        <v>31</v>
       </c>
       <c r="B2853" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2853" t="s">
         <v>2628</v>
@@ -50660,10 +50663,10 @@
     </row>
     <row r="2854" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2854" t="s">
-        <v>1346</v>
+        <v>1398</v>
       </c>
       <c r="B2854" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2854" t="s">
         <v>2628</v>
@@ -50674,10 +50677,10 @@
     </row>
     <row r="2855" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2855" t="s">
-        <v>1539</v>
+        <v>1346</v>
       </c>
       <c r="B2855" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2855" t="s">
         <v>2628</v>
@@ -50688,10 +50691,10 @@
     </row>
     <row r="2856" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2856" t="s">
-        <v>1290</v>
+        <v>1539</v>
       </c>
       <c r="B2856" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2856" t="s">
         <v>2628</v>
@@ -50702,10 +50705,10 @@
     </row>
     <row r="2857" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2857" t="s">
-        <v>151</v>
+        <v>1290</v>
       </c>
       <c r="B2857" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2857" t="s">
         <v>2628</v>
@@ -50716,10 +50719,10 @@
     </row>
     <row r="2858" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2858" t="s">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="B2858" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2858" t="s">
         <v>2628</v>
@@ -50730,10 +50733,10 @@
     </row>
     <row r="2859" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2859" t="s">
-        <v>1963</v>
+        <v>501</v>
       </c>
       <c r="B2859" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2859" t="s">
         <v>2628</v>
@@ -50744,10 +50747,10 @@
     </row>
     <row r="2860" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2860" t="s">
-        <v>1606</v>
+        <v>1963</v>
       </c>
       <c r="B2860" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2860" t="s">
         <v>2628</v>
@@ -50758,10 +50761,10 @@
     </row>
     <row r="2861" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2861" t="s">
-        <v>1932</v>
+        <v>1606</v>
       </c>
       <c r="B2861" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2861" t="s">
         <v>2628</v>
@@ -50772,10 +50775,10 @@
     </row>
     <row r="2862" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2862" t="s">
-        <v>1180</v>
+        <v>1932</v>
       </c>
       <c r="B2862" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2862" t="s">
         <v>2628</v>
@@ -50786,10 +50789,10 @@
     </row>
     <row r="2863" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2863" t="s">
-        <v>1280</v>
+        <v>1180</v>
       </c>
       <c r="B2863" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2863" t="s">
         <v>2628</v>
@@ -50800,10 +50803,10 @@
     </row>
     <row r="2864" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2864" t="s">
-        <v>2024</v>
+        <v>1280</v>
       </c>
       <c r="B2864" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2864" t="s">
         <v>2628</v>
@@ -50814,10 +50817,10 @@
     </row>
     <row r="2865" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2865" t="s">
-        <v>198</v>
+        <v>2024</v>
       </c>
       <c r="B2865" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2865" t="s">
         <v>2628</v>
@@ -50828,10 +50831,10 @@
     </row>
     <row r="2866" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2866" t="s">
-        <v>1228</v>
+        <v>198</v>
       </c>
       <c r="B2866" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2866" t="s">
         <v>2628</v>
@@ -50842,10 +50845,10 @@
     </row>
     <row r="2867" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2867" t="s">
-        <v>508</v>
+        <v>1228</v>
       </c>
       <c r="B2867" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2867" t="s">
         <v>2628</v>
@@ -50856,10 +50859,10 @@
     </row>
     <row r="2868" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2868" t="s">
-        <v>2094</v>
+        <v>508</v>
       </c>
       <c r="B2868" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2868" t="s">
         <v>2628</v>
@@ -50870,10 +50873,10 @@
     </row>
     <row r="2869" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2869" t="s">
-        <v>1372</v>
+        <v>2094</v>
       </c>
       <c r="B2869" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2869" t="s">
         <v>2628</v>
@@ -50884,10 +50887,10 @@
     </row>
     <row r="2870" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2870" t="s">
-        <v>476</v>
+        <v>1372</v>
       </c>
       <c r="B2870" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2870" t="s">
         <v>2628</v>
@@ -50898,10 +50901,10 @@
     </row>
     <row r="2871" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2871" t="s">
-        <v>975</v>
+        <v>476</v>
       </c>
       <c r="B2871" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2871" t="s">
         <v>2628</v>
@@ -50912,10 +50915,10 @@
     </row>
     <row r="2872" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2872" t="s">
-        <v>1035</v>
+        <v>975</v>
       </c>
       <c r="B2872" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2872" t="s">
         <v>2628</v>
@@ -50926,10 +50929,10 @@
     </row>
     <row r="2873" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2873" t="s">
-        <v>287</v>
+        <v>1035</v>
       </c>
       <c r="B2873" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2873" t="s">
         <v>2628</v>
@@ -50940,10 +50943,10 @@
     </row>
     <row r="2874" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2874" t="s">
-        <v>1981</v>
+        <v>287</v>
       </c>
       <c r="B2874" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2874" t="s">
         <v>2628</v>
@@ -50954,10 +50957,10 @@
     </row>
     <row r="2875" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2875" t="s">
-        <v>1282</v>
+        <v>1981</v>
       </c>
       <c r="B2875" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2875" t="s">
         <v>2628</v>
@@ -50968,10 +50971,10 @@
     </row>
     <row r="2876" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2876" t="s">
-        <v>1376</v>
+        <v>1282</v>
       </c>
       <c r="B2876" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2876" t="s">
         <v>2628</v>
@@ -50982,10 +50985,10 @@
     </row>
     <row r="2877" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2877" t="s">
-        <v>252</v>
+        <v>1376</v>
       </c>
       <c r="B2877" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2877" t="s">
         <v>2628</v>
@@ -50996,10 +50999,10 @@
     </row>
     <row r="2878" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2878" t="s">
-        <v>462</v>
+        <v>252</v>
       </c>
       <c r="B2878" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2878" t="s">
         <v>2628</v>
@@ -51010,10 +51013,10 @@
     </row>
     <row r="2879" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2879" t="s">
-        <v>1432</v>
+        <v>462</v>
       </c>
       <c r="B2879" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2879" t="s">
         <v>2628</v>
@@ -51024,10 +51027,10 @@
     </row>
     <row r="2880" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2880" t="s">
-        <v>870</v>
+        <v>1432</v>
       </c>
       <c r="B2880" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2880" t="s">
         <v>2628</v>
@@ -51038,10 +51041,10 @@
     </row>
     <row r="2881" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2881" t="s">
-        <v>284</v>
+        <v>870</v>
       </c>
       <c r="B2881" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2881" t="s">
         <v>2628</v>
@@ -51052,10 +51055,10 @@
     </row>
     <row r="2882" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2882" t="s">
-        <v>998</v>
+        <v>284</v>
       </c>
       <c r="B2882" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2882" t="s">
         <v>2628</v>
@@ -51066,10 +51069,10 @@
     </row>
     <row r="2883" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2883" t="s">
-        <v>263</v>
+        <v>998</v>
       </c>
       <c r="B2883" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2883" t="s">
         <v>2628</v>
@@ -51080,10 +51083,10 @@
     </row>
     <row r="2884" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2884" t="s">
-        <v>1709</v>
+        <v>263</v>
       </c>
       <c r="B2884" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2884" t="s">
         <v>2628</v>
@@ -51094,10 +51097,10 @@
     </row>
     <row r="2885" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2885" t="s">
-        <v>1448</v>
+        <v>1709</v>
       </c>
       <c r="B2885" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2885" t="s">
         <v>2628</v>
@@ -51108,10 +51111,10 @@
     </row>
     <row r="2886" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2886" t="s">
-        <v>234</v>
+        <v>1448</v>
       </c>
       <c r="B2886" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2886" t="s">
         <v>2628</v>
@@ -51122,10 +51125,10 @@
     </row>
     <row r="2887" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2887" t="s">
-        <v>2069</v>
+        <v>234</v>
       </c>
       <c r="B2887" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2887" t="s">
         <v>2628</v>
@@ -51136,10 +51139,10 @@
     </row>
     <row r="2888" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2888" t="s">
-        <v>671</v>
+        <v>2069</v>
       </c>
       <c r="B2888" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2888" t="s">
         <v>2628</v>
@@ -51150,10 +51153,10 @@
     </row>
     <row r="2889" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2889" t="s">
-        <v>1975</v>
+        <v>671</v>
       </c>
       <c r="B2889" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2889" t="s">
         <v>2628</v>
@@ -51164,10 +51167,10 @@
     </row>
     <row r="2890" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2890" t="s">
-        <v>2005</v>
+        <v>1975</v>
       </c>
       <c r="B2890" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2890" t="s">
         <v>2628</v>
@@ -51178,10 +51181,10 @@
     </row>
     <row r="2891" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2891" t="s">
-        <v>2084</v>
+        <v>2005</v>
       </c>
       <c r="B2891" t="s">
-        <v>2150</v>
+        <v>2138</v>
       </c>
       <c r="C2891" t="s">
         <v>2628</v>
@@ -51192,7 +51195,7 @@
     </row>
     <row r="2892" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2892" t="s">
-        <v>678</v>
+        <v>2084</v>
       </c>
       <c r="B2892" t="s">
         <v>2150</v>
@@ -51206,7 +51209,7 @@
     </row>
     <row r="2893" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2893" t="s">
-        <v>2026</v>
+        <v>678</v>
       </c>
       <c r="B2893" t="s">
         <v>2150</v>
@@ -51220,7 +51223,7 @@
     </row>
     <row r="2894" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2894" t="s">
-        <v>221</v>
+        <v>2026</v>
       </c>
       <c r="B2894" t="s">
         <v>2150</v>
@@ -51234,7 +51237,7 @@
     </row>
     <row r="2895" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2895" t="s">
-        <v>1000</v>
+        <v>221</v>
       </c>
       <c r="B2895" t="s">
         <v>2150</v>
@@ -51248,7 +51251,7 @@
     </row>
     <row r="2896" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2896" t="s">
-        <v>385</v>
+        <v>1000</v>
       </c>
       <c r="B2896" t="s">
         <v>2150</v>
@@ -51262,7 +51265,7 @@
     </row>
     <row r="2897" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2897" t="s">
-        <v>789</v>
+        <v>385</v>
       </c>
       <c r="B2897" t="s">
         <v>2150</v>
@@ -51276,7 +51279,7 @@
     </row>
     <row r="2898" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2898" t="s">
-        <v>2111</v>
+        <v>789</v>
       </c>
       <c r="B2898" t="s">
         <v>2150</v>
@@ -51290,10 +51293,10 @@
     </row>
     <row r="2899" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2899" t="s">
-        <v>863</v>
+        <v>2111</v>
       </c>
       <c r="B2899" t="s">
-        <v>2192</v>
+        <v>2150</v>
       </c>
       <c r="C2899" t="s">
         <v>2628</v>
@@ -51304,10 +51307,10 @@
     </row>
     <row r="2900" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2900" t="s">
-        <v>35</v>
+        <v>863</v>
       </c>
       <c r="B2900" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2900" t="s">
         <v>2628</v>
@@ -51318,10 +51321,10 @@
     </row>
     <row r="2901" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2901" t="s">
-        <v>762</v>
+        <v>35</v>
       </c>
       <c r="B2901" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2901" t="s">
         <v>2628</v>
@@ -51332,10 +51335,10 @@
     </row>
     <row r="2902" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2902" t="s">
-        <v>1934</v>
+        <v>762</v>
       </c>
       <c r="B2902" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2902" t="s">
         <v>2628</v>
@@ -51346,10 +51349,10 @@
     </row>
     <row r="2903" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2903" t="s">
-        <v>717</v>
+        <v>1934</v>
       </c>
       <c r="B2903" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2903" t="s">
         <v>2628</v>
@@ -51360,10 +51363,10 @@
     </row>
     <row r="2904" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2904" t="s">
-        <v>1144</v>
+        <v>717</v>
       </c>
       <c r="B2904" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2904" t="s">
         <v>2628</v>
@@ -51374,10 +51377,10 @@
     </row>
     <row r="2905" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2905" t="s">
-        <v>1512</v>
+        <v>1144</v>
       </c>
       <c r="B2905" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2905" t="s">
         <v>2628</v>
@@ -51388,10 +51391,10 @@
     </row>
     <row r="2906" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2906" t="s">
-        <v>677</v>
+        <v>1512</v>
       </c>
       <c r="B2906" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2906" t="s">
         <v>2628</v>
@@ -51402,10 +51405,10 @@
     </row>
     <row r="2907" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2907" t="s">
-        <v>1721</v>
+        <v>677</v>
       </c>
       <c r="B2907" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2907" t="s">
         <v>2628</v>
@@ -51416,10 +51419,10 @@
     </row>
     <row r="2908" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2908" t="s">
-        <v>2105</v>
+        <v>1721</v>
       </c>
       <c r="B2908" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2908" t="s">
         <v>2628</v>
@@ -51430,10 +51433,10 @@
     </row>
     <row r="2909" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2909" t="s">
-        <v>1627</v>
+        <v>2105</v>
       </c>
       <c r="B2909" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2909" t="s">
         <v>2628</v>
@@ -51444,10 +51447,10 @@
     </row>
     <row r="2910" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2910" t="s">
-        <v>1121</v>
+        <v>1627</v>
       </c>
       <c r="B2910" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2910" t="s">
         <v>2628</v>
@@ -51458,10 +51461,10 @@
     </row>
     <row r="2911" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2911" t="s">
-        <v>2060</v>
+        <v>1121</v>
       </c>
       <c r="B2911" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2911" t="s">
         <v>2628</v>
@@ -51472,10 +51475,10 @@
     </row>
     <row r="2912" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2912" t="s">
-        <v>1675</v>
+        <v>2060</v>
       </c>
       <c r="B2912" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2912" t="s">
         <v>2628</v>
@@ -51486,10 +51489,10 @@
     </row>
     <row r="2913" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2913" t="s">
-        <v>2100</v>
+        <v>1675</v>
       </c>
       <c r="B2913" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2913" t="s">
         <v>2628</v>
@@ -51500,10 +51503,10 @@
     </row>
     <row r="2914" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2914" t="s">
-        <v>190</v>
+        <v>2100</v>
       </c>
       <c r="B2914" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2914" t="s">
         <v>2628</v>
@@ -51514,10 +51517,10 @@
     </row>
     <row r="2915" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2915" t="s">
-        <v>1514</v>
+        <v>190</v>
       </c>
       <c r="B2915" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2915" t="s">
         <v>2628</v>
@@ -51528,10 +51531,10 @@
     </row>
     <row r="2916" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2916" t="s">
-        <v>216</v>
+        <v>1514</v>
       </c>
       <c r="B2916" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2916" t="s">
         <v>2628</v>
@@ -51542,10 +51545,10 @@
     </row>
     <row r="2917" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2917" t="s">
-        <v>1239</v>
+        <v>216</v>
       </c>
       <c r="B2917" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2917" t="s">
         <v>2628</v>
@@ -51556,10 +51559,10 @@
     </row>
     <row r="2918" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2918" t="s">
-        <v>1392</v>
+        <v>1239</v>
       </c>
       <c r="B2918" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2918" t="s">
         <v>2628</v>
@@ -51570,10 +51573,10 @@
     </row>
     <row r="2919" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2919" t="s">
-        <v>104</v>
+        <v>1392</v>
       </c>
       <c r="B2919" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2919" t="s">
         <v>2628</v>
@@ -51584,10 +51587,10 @@
     </row>
     <row r="2920" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2920" t="s">
-        <v>1639</v>
+        <v>104</v>
       </c>
       <c r="B2920" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2920" t="s">
         <v>2628</v>
@@ -51598,10 +51601,10 @@
     </row>
     <row r="2921" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2921" t="s">
-        <v>968</v>
+        <v>1639</v>
       </c>
       <c r="B2921" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2921" t="s">
         <v>2628</v>
@@ -51612,10 +51615,10 @@
     </row>
     <row r="2922" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2922" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="B2922" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2922" t="s">
         <v>2628</v>
@@ -51626,10 +51629,10 @@
     </row>
     <row r="2923" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2923" t="s">
-        <v>112</v>
+        <v>985</v>
       </c>
       <c r="B2923" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2923" t="s">
         <v>2628</v>
@@ -51640,10 +51643,10 @@
     </row>
     <row r="2924" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2924" t="s">
-        <v>2062</v>
+        <v>112</v>
       </c>
       <c r="B2924" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2924" t="s">
         <v>2628</v>
@@ -51654,10 +51657,10 @@
     </row>
     <row r="2925" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2925" t="s">
-        <v>734</v>
+        <v>2062</v>
       </c>
       <c r="B2925" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2925" t="s">
         <v>2628</v>
@@ -51668,10 +51671,10 @@
     </row>
     <row r="2926" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2926" t="s">
-        <v>1955</v>
+        <v>734</v>
       </c>
       <c r="B2926" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2926" t="s">
         <v>2628</v>
@@ -51682,10 +51685,10 @@
     </row>
     <row r="2927" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2927" t="s">
-        <v>1307</v>
+        <v>1955</v>
       </c>
       <c r="B2927" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2927" t="s">
         <v>2628</v>
@@ -51696,10 +51699,10 @@
     </row>
     <row r="2928" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2928" t="s">
-        <v>1531</v>
+        <v>1307</v>
       </c>
       <c r="B2928" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2928" t="s">
         <v>2628</v>
@@ -51710,10 +51713,10 @@
     </row>
     <row r="2929" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2929" t="s">
-        <v>1252</v>
+        <v>1531</v>
       </c>
       <c r="B2929" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2929" t="s">
         <v>2628</v>
@@ -51724,10 +51727,10 @@
     </row>
     <row r="2930" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2930" t="s">
-        <v>1920</v>
+        <v>1252</v>
       </c>
       <c r="B2930" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2930" t="s">
         <v>2628</v>
@@ -51738,10 +51741,10 @@
     </row>
     <row r="2931" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2931" t="s">
-        <v>1465</v>
+        <v>1920</v>
       </c>
       <c r="B2931" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2931" t="s">
         <v>2628</v>
@@ -51752,10 +51755,10 @@
     </row>
     <row r="2932" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2932" t="s">
-        <v>2066</v>
+        <v>1465</v>
       </c>
       <c r="B2932" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2932" t="s">
         <v>2628</v>
@@ -51766,10 +51769,10 @@
     </row>
     <row r="2933" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2933" t="s">
-        <v>1962</v>
+        <v>2066</v>
       </c>
       <c r="B2933" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2933" t="s">
         <v>2628</v>
@@ -51780,10 +51783,10 @@
     </row>
     <row r="2934" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2934" t="s">
-        <v>515</v>
+        <v>1962</v>
       </c>
       <c r="B2934" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2934" t="s">
         <v>2628</v>
@@ -51794,10 +51797,10 @@
     </row>
     <row r="2935" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2935" t="s">
-        <v>729</v>
+        <v>515</v>
       </c>
       <c r="B2935" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2935" t="s">
         <v>2628</v>
@@ -51808,10 +51811,10 @@
     </row>
     <row r="2936" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2936" t="s">
-        <v>506</v>
+        <v>729</v>
       </c>
       <c r="B2936" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2936" t="s">
         <v>2628</v>
@@ -51822,10 +51825,10 @@
     </row>
     <row r="2937" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2937" t="s">
-        <v>382</v>
+        <v>506</v>
       </c>
       <c r="B2937" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2937" t="s">
         <v>2628</v>
@@ -51836,10 +51839,10 @@
     </row>
     <row r="2938" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2938" t="s">
-        <v>1017</v>
+        <v>382</v>
       </c>
       <c r="B2938" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2938" t="s">
         <v>2628</v>
@@ -51850,10 +51853,10 @@
     </row>
     <row r="2939" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2939" t="s">
-        <v>918</v>
+        <v>1017</v>
       </c>
       <c r="B2939" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2939" t="s">
         <v>2628</v>
@@ -51864,10 +51867,10 @@
     </row>
     <row r="2940" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2940" t="s">
-        <v>1369</v>
+        <v>918</v>
       </c>
       <c r="B2940" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2940" t="s">
         <v>2628</v>
@@ -51878,10 +51881,10 @@
     </row>
     <row r="2941" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2941" t="s">
-        <v>1530</v>
+        <v>1369</v>
       </c>
       <c r="B2941" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2941" t="s">
         <v>2628</v>
@@ -51892,10 +51895,10 @@
     </row>
     <row r="2942" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2942" t="s">
-        <v>1447</v>
+        <v>1530</v>
       </c>
       <c r="B2942" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2942" t="s">
         <v>2628</v>
@@ -51906,10 +51909,10 @@
     </row>
     <row r="2943" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2943" t="s">
-        <v>535</v>
+        <v>1447</v>
       </c>
       <c r="B2943" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2943" t="s">
         <v>2628</v>
@@ -51920,10 +51923,10 @@
     </row>
     <row r="2944" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2944" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="B2944" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2944" t="s">
         <v>2628</v>
@@ -51934,10 +51937,10 @@
     </row>
     <row r="2945" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2945" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="B2945" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2945" t="s">
         <v>2628</v>
@@ -51948,10 +51951,10 @@
     </row>
     <row r="2946" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2946" t="s">
-        <v>816</v>
+        <v>493</v>
       </c>
       <c r="B2946" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2946" t="s">
         <v>2628</v>
@@ -51962,10 +51965,10 @@
     </row>
     <row r="2947" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2947" t="s">
-        <v>1784</v>
+        <v>816</v>
       </c>
       <c r="B2947" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2947" t="s">
         <v>2628</v>
@@ -51976,10 +51979,10 @@
     </row>
     <row r="2948" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2948" t="s">
-        <v>1275</v>
+        <v>1784</v>
       </c>
       <c r="B2948" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2948" t="s">
         <v>2628</v>
@@ -51990,10 +51993,10 @@
     </row>
     <row r="2949" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2949" t="s">
-        <v>227</v>
+        <v>1275</v>
       </c>
       <c r="B2949" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2949" t="s">
         <v>2628</v>
@@ -52004,10 +52007,10 @@
     </row>
     <row r="2950" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2950" t="s">
-        <v>2114</v>
+        <v>227</v>
       </c>
       <c r="B2950" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
       <c r="C2950" t="s">
         <v>2628</v>
@@ -52018,10 +52021,10 @@
     </row>
     <row r="2951" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2951" t="s">
-        <v>336</v>
+        <v>2114</v>
       </c>
       <c r="B2951" t="s">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="C2951" t="s">
         <v>2628</v>
@@ -52032,10 +52035,10 @@
     </row>
     <row r="2952" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2952" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
       <c r="B2952" t="s">
-        <v>2243</v>
+        <v>2148</v>
       </c>
       <c r="C2952" t="s">
         <v>2628</v>
@@ -52046,10 +52049,10 @@
     </row>
     <row r="2953" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2953" t="s">
-        <v>437</v>
+        <v>243</v>
       </c>
       <c r="B2953" t="s">
-        <v>2192</v>
+        <v>2243</v>
       </c>
       <c r="C2953" t="s">
         <v>2628</v>
@@ -52060,10 +52063,10 @@
     </row>
     <row r="2954" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2954" t="s">
-        <v>2113</v>
+        <v>437</v>
       </c>
       <c r="B2954" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2954" t="s">
         <v>2628</v>
@@ -52074,10 +52077,10 @@
     </row>
     <row r="2955" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2955" t="s">
-        <v>779</v>
+        <v>2113</v>
       </c>
       <c r="B2955" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2955" t="s">
         <v>2628</v>
@@ -52088,7 +52091,7 @@
     </row>
     <row r="2956" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2956" t="s">
-        <v>1097</v>
+        <v>779</v>
       </c>
       <c r="B2956" t="s">
         <v>2192</v>
@@ -52102,10 +52105,10 @@
     </row>
     <row r="2957" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2957" t="s">
-        <v>412</v>
+        <v>1097</v>
       </c>
       <c r="B2957" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2957" t="s">
         <v>2628</v>
@@ -52116,10 +52119,10 @@
     </row>
     <row r="2958" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2958" t="s">
-        <v>2064</v>
+        <v>412</v>
       </c>
       <c r="B2958" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2958" t="s">
         <v>2628</v>
@@ -52130,10 +52133,10 @@
     </row>
     <row r="2959" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2959" t="s">
-        <v>1722</v>
+        <v>2064</v>
       </c>
       <c r="B2959" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2959" t="s">
         <v>2628</v>
@@ -52144,10 +52147,10 @@
     </row>
     <row r="2960" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2960" t="s">
-        <v>155</v>
+        <v>1722</v>
       </c>
       <c r="B2960" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2960" t="s">
         <v>2628</v>
@@ -52158,10 +52161,10 @@
     </row>
     <row r="2961" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2961" t="s">
-        <v>621</v>
+        <v>155</v>
       </c>
       <c r="B2961" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2961" t="s">
         <v>2628</v>
@@ -52172,10 +52175,10 @@
     </row>
     <row r="2962" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2962" t="s">
-        <v>1937</v>
+        <v>621</v>
       </c>
       <c r="B2962" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2962" t="s">
         <v>2628</v>
@@ -52186,10 +52189,10 @@
     </row>
     <row r="2963" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2963" t="s">
-        <v>627</v>
+        <v>1937</v>
       </c>
       <c r="B2963" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2963" t="s">
         <v>2628</v>
@@ -52200,10 +52203,10 @@
     </row>
     <row r="2964" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2964" t="s">
-        <v>1315</v>
+        <v>627</v>
       </c>
       <c r="B2964" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2964" t="s">
         <v>2628</v>
@@ -52214,10 +52217,10 @@
     </row>
     <row r="2965" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2965" t="s">
-        <v>721</v>
+        <v>1315</v>
       </c>
       <c r="B2965" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2965" t="s">
         <v>2628</v>
@@ -52228,10 +52231,10 @@
     </row>
     <row r="2966" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2966" t="s">
-        <v>1704</v>
+        <v>721</v>
       </c>
       <c r="B2966" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2966" t="s">
         <v>2628</v>
@@ -52242,10 +52245,10 @@
     </row>
     <row r="2967" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2967" t="s">
-        <v>1650</v>
+        <v>1704</v>
       </c>
       <c r="B2967" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2967" t="s">
         <v>2628</v>
@@ -52256,10 +52259,10 @@
     </row>
     <row r="2968" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2968" t="s">
-        <v>1474</v>
+        <v>1650</v>
       </c>
       <c r="B2968" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2968" t="s">
         <v>2628</v>
@@ -52270,10 +52273,10 @@
     </row>
     <row r="2969" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2969" t="s">
-        <v>1361</v>
+        <v>1474</v>
       </c>
       <c r="B2969" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2969" t="s">
         <v>2628</v>
@@ -52284,10 +52287,10 @@
     </row>
     <row r="2970" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2970" t="s">
-        <v>1617</v>
+        <v>1361</v>
       </c>
       <c r="B2970" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2970" t="s">
         <v>2628</v>
@@ -52298,10 +52301,10 @@
     </row>
     <row r="2971" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2971" t="s">
-        <v>2033</v>
+        <v>1617</v>
       </c>
       <c r="B2971" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2971" t="s">
         <v>2628</v>
@@ -52312,10 +52315,10 @@
     </row>
     <row r="2972" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2972" t="s">
-        <v>1795</v>
+        <v>2033</v>
       </c>
       <c r="B2972" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2972" t="s">
         <v>2628</v>
@@ -52326,10 +52329,10 @@
     </row>
     <row r="2973" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2973" t="s">
-        <v>1695</v>
+        <v>1795</v>
       </c>
       <c r="B2973" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2973" t="s">
         <v>2628</v>
@@ -52340,10 +52343,10 @@
     </row>
     <row r="2974" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2974" t="s">
-        <v>1211</v>
+        <v>1695</v>
       </c>
       <c r="B2974" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2974" t="s">
         <v>2628</v>
@@ -52354,10 +52357,10 @@
     </row>
     <row r="2975" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2975" t="s">
-        <v>16</v>
+        <v>1211</v>
       </c>
       <c r="B2975" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2975" t="s">
         <v>2628</v>
@@ -52368,10 +52371,10 @@
     </row>
     <row r="2976" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2976" t="s">
-        <v>906</v>
+        <v>16</v>
       </c>
       <c r="B2976" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2976" t="s">
         <v>2628</v>
@@ -52382,10 +52385,10 @@
     </row>
     <row r="2977" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2977" t="s">
-        <v>1808</v>
+        <v>906</v>
       </c>
       <c r="B2977" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2977" t="s">
         <v>2628</v>
@@ -52396,10 +52399,10 @@
     </row>
     <row r="2978" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2978" t="s">
-        <v>230</v>
+        <v>1808</v>
       </c>
       <c r="B2978" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2978" t="s">
         <v>2628</v>
@@ -52410,10 +52413,10 @@
     </row>
     <row r="2979" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2979" t="s">
-        <v>689</v>
+        <v>230</v>
       </c>
       <c r="B2979" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2979" t="s">
         <v>2628</v>
@@ -52424,10 +52427,10 @@
     </row>
     <row r="2980" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2980" t="s">
-        <v>1106</v>
+        <v>689</v>
       </c>
       <c r="B2980" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2980" t="s">
         <v>2628</v>
@@ -52438,10 +52441,10 @@
     </row>
     <row r="2981" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2981" t="s">
-        <v>1995</v>
+        <v>1106</v>
       </c>
       <c r="B2981" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2981" t="s">
         <v>2628</v>
@@ -52452,10 +52455,10 @@
     </row>
     <row r="2982" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2982" t="s">
-        <v>1566</v>
+        <v>1995</v>
       </c>
       <c r="B2982" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2982" t="s">
         <v>2628</v>
@@ -52466,10 +52469,10 @@
     </row>
     <row r="2983" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2983" t="s">
-        <v>1585</v>
+        <v>1566</v>
       </c>
       <c r="B2983" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2983" t="s">
         <v>2628</v>
@@ -52480,10 +52483,10 @@
     </row>
     <row r="2984" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2984" t="s">
-        <v>409</v>
+        <v>1585</v>
       </c>
       <c r="B2984" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2984" t="s">
         <v>2628</v>
@@ -52494,10 +52497,10 @@
     </row>
     <row r="2985" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2985" t="s">
-        <v>860</v>
+        <v>409</v>
       </c>
       <c r="B2985" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2985" t="s">
         <v>2628</v>
@@ -52508,10 +52511,10 @@
     </row>
     <row r="2986" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2986" t="s">
-        <v>1746</v>
+        <v>860</v>
       </c>
       <c r="B2986" t="s">
-        <v>2192</v>
+        <v>2138</v>
       </c>
       <c r="C2986" t="s">
         <v>2628</v>
@@ -52522,10 +52525,10 @@
     </row>
     <row r="2987" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2987" t="s">
-        <v>322</v>
+        <v>1746</v>
       </c>
       <c r="B2987" t="s">
-        <v>2138</v>
+        <v>2192</v>
       </c>
       <c r="C2987" t="s">
         <v>2628</v>
@@ -52536,10 +52539,10 @@
     </row>
     <row r="2988" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2988" t="s">
-        <v>3133</v>
+        <v>322</v>
       </c>
       <c r="B2988" t="s">
-        <v>2150</v>
+        <v>2138</v>
       </c>
       <c r="C2988" t="s">
         <v>2628</v>
@@ -52550,24 +52553,24 @@
     </row>
     <row r="2989" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2989" t="s">
-        <v>526</v>
+        <v>3133</v>
       </c>
       <c r="B2989" t="s">
-        <v>526</v>
+        <v>2150</v>
       </c>
       <c r="C2989" t="s">
-        <v>2660</v>
+        <v>2628</v>
       </c>
       <c r="D2989" t="s">
-        <v>2697</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="2990" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2990" t="s">
-        <v>831</v>
+        <v>526</v>
       </c>
       <c r="B2990" t="s">
-        <v>831</v>
+        <v>526</v>
       </c>
       <c r="C2990" t="s">
         <v>2660</v>
@@ -52578,24 +52581,24 @@
     </row>
     <row r="2991" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2991" t="s">
-        <v>664</v>
+        <v>831</v>
       </c>
       <c r="B2991" t="s">
-        <v>664</v>
+        <v>831</v>
       </c>
       <c r="C2991" t="s">
-        <v>2636</v>
+        <v>2660</v>
       </c>
       <c r="D2991" t="s">
-        <v>2685</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="2992" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2992" t="s">
-        <v>1452</v>
+        <v>664</v>
       </c>
       <c r="B2992" t="s">
-        <v>1452</v>
+        <v>664</v>
       </c>
       <c r="C2992" t="s">
         <v>2636</v>
@@ -52606,10 +52609,10 @@
     </row>
     <row r="2993" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2993" t="s">
-        <v>700</v>
+        <v>1452</v>
       </c>
       <c r="B2993" t="s">
-        <v>700</v>
+        <v>1452</v>
       </c>
       <c r="C2993" t="s">
         <v>2636</v>
@@ -52620,10 +52623,10 @@
     </row>
     <row r="2994" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2994" t="s">
-        <v>1340</v>
+        <v>700</v>
       </c>
       <c r="B2994" t="s">
-        <v>1340</v>
+        <v>700</v>
       </c>
       <c r="C2994" t="s">
         <v>2636</v>
@@ -52634,10 +52637,10 @@
     </row>
     <row r="2995" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2995" t="s">
-        <v>952</v>
+        <v>1340</v>
       </c>
       <c r="B2995" t="s">
-        <v>952</v>
+        <v>1340</v>
       </c>
       <c r="C2995" t="s">
         <v>2636</v>
@@ -52648,10 +52651,10 @@
     </row>
     <row r="2996" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2996" t="s">
-        <v>156</v>
+        <v>952</v>
       </c>
       <c r="B2996" t="s">
-        <v>156</v>
+        <v>952</v>
       </c>
       <c r="C2996" t="s">
         <v>2636</v>
@@ -52662,10 +52665,10 @@
     </row>
     <row r="2997" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2997" t="s">
-        <v>1303</v>
+        <v>156</v>
       </c>
       <c r="B2997" t="s">
-        <v>1303</v>
+        <v>156</v>
       </c>
       <c r="C2997" t="s">
         <v>2636</v>
@@ -52676,10 +52679,10 @@
     </row>
     <row r="2998" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2998" t="s">
-        <v>1259</v>
+        <v>1303</v>
       </c>
       <c r="B2998" t="s">
-        <v>1259</v>
+        <v>1303</v>
       </c>
       <c r="C2998" t="s">
         <v>2636</v>
@@ -52690,52 +52693,52 @@
     </row>
     <row r="2999" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2999" t="s">
-        <v>1233</v>
+        <v>1259</v>
       </c>
       <c r="B2999" t="s">
-        <v>1233</v>
+        <v>1259</v>
       </c>
       <c r="C2999" t="s">
         <v>2636</v>
       </c>
       <c r="D2999" t="s">
-        <v>2779</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="3000" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3000" t="s">
-        <v>1373</v>
+        <v>1233</v>
       </c>
       <c r="B3000" t="s">
-        <v>2487</v>
+        <v>1233</v>
       </c>
       <c r="C3000" t="s">
-        <v>2623</v>
+        <v>2636</v>
       </c>
       <c r="D3000" t="s">
-        <v>2684</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="3001" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3001" t="s">
-        <v>1127</v>
+        <v>1373</v>
       </c>
       <c r="B3001" t="s">
-        <v>2336</v>
+        <v>2487</v>
       </c>
       <c r="C3001" t="s">
-        <v>2631</v>
+        <v>2623</v>
       </c>
       <c r="D3001" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="3002" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3002" t="s">
-        <v>1980</v>
+        <v>1127</v>
       </c>
       <c r="B3002" t="s">
-        <v>2315</v>
+        <v>2336</v>
       </c>
       <c r="C3002" t="s">
         <v>2631</v>
@@ -52746,7 +52749,7 @@
     </row>
     <row r="3003" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3003" t="s">
-        <v>1669</v>
+        <v>1980</v>
       </c>
       <c r="B3003" t="s">
         <v>2315</v>
@@ -52760,10 +52763,10 @@
     </row>
     <row r="3004" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3004" t="s">
-        <v>1199</v>
+        <v>1669</v>
       </c>
       <c r="B3004" t="s">
-        <v>2452</v>
+        <v>2315</v>
       </c>
       <c r="C3004" t="s">
         <v>2631</v>
@@ -52774,10 +52777,10 @@
     </row>
     <row r="3005" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3005" t="s">
-        <v>1689</v>
+        <v>1199</v>
       </c>
       <c r="B3005" t="s">
-        <v>2549</v>
+        <v>2452</v>
       </c>
       <c r="C3005" t="s">
         <v>2631</v>
@@ -52788,10 +52791,10 @@
     </row>
     <row r="3006" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3006" t="s">
-        <v>1677</v>
+        <v>1689</v>
       </c>
       <c r="B3006" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="C3006" t="s">
         <v>2631</v>
@@ -52802,10 +52805,10 @@
     </row>
     <row r="3007" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3007" t="s">
-        <v>3204</v>
+        <v>1677</v>
       </c>
       <c r="B3007" t="s">
-        <v>3194</v>
+        <v>2546</v>
       </c>
       <c r="C3007" t="s">
         <v>2631</v>
@@ -52816,10 +52819,10 @@
     </row>
     <row r="3008" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3008" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B3008" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C3008" t="s">
         <v>2631</v>
@@ -52830,10 +52833,10 @@
     </row>
     <row r="3009" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3009" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B3009" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="C3009" t="s">
         <v>2631</v>
@@ -52844,10 +52847,10 @@
     </row>
     <row r="3010" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3010" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B3010" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="C3010" t="s">
         <v>2631</v>
@@ -52858,10 +52861,10 @@
     </row>
     <row r="3011" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3011" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="B3011" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="C3011" t="s">
         <v>2631</v>
@@ -52872,10 +52875,10 @@
     </row>
     <row r="3012" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3012" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="B3012" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="C3012" t="s">
         <v>2631</v>
@@ -52886,10 +52889,10 @@
     </row>
     <row r="3013" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3013" t="s">
-        <v>138</v>
+        <v>3209</v>
       </c>
       <c r="B3013" t="s">
-        <v>2205</v>
+        <v>3199</v>
       </c>
       <c r="C3013" t="s">
         <v>2631</v>
@@ -52900,10 +52903,10 @@
     </row>
     <row r="3014" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3014" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="B3014" t="s">
-        <v>2362</v>
+        <v>2205</v>
       </c>
       <c r="C3014" t="s">
         <v>2631</v>
@@ -52914,10 +52917,10 @@
     </row>
     <row r="3015" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3015" t="s">
-        <v>1586</v>
+        <v>731</v>
       </c>
       <c r="B3015" t="s">
-        <v>2534</v>
+        <v>2362</v>
       </c>
       <c r="C3015" t="s">
         <v>2631</v>
@@ -52928,10 +52931,10 @@
     </row>
     <row r="3016" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3016" t="s">
-        <v>1678</v>
+        <v>1586</v>
       </c>
       <c r="B3016" t="s">
-        <v>2547</v>
+        <v>2534</v>
       </c>
       <c r="C3016" t="s">
         <v>2631</v>
@@ -52942,10 +52945,10 @@
     </row>
     <row r="3017" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3017" t="s">
-        <v>1220</v>
+        <v>1678</v>
       </c>
       <c r="B3017" t="s">
-        <v>2456</v>
+        <v>2547</v>
       </c>
       <c r="C3017" t="s">
         <v>2631</v>
@@ -52956,10 +52959,10 @@
     </row>
     <row r="3018" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3018" t="s">
-        <v>1917</v>
+        <v>1220</v>
       </c>
       <c r="B3018" t="s">
-        <v>2590</v>
+        <v>2456</v>
       </c>
       <c r="C3018" t="s">
         <v>2631</v>
@@ -52970,10 +52973,10 @@
     </row>
     <row r="3019" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3019" t="s">
-        <v>14</v>
+        <v>1917</v>
       </c>
       <c r="B3019" t="s">
-        <v>2136</v>
+        <v>2590</v>
       </c>
       <c r="C3019" t="s">
         <v>2631</v>
@@ -52984,10 +52987,10 @@
     </row>
     <row r="3020" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3020" t="s">
-        <v>1715</v>
+        <v>14</v>
       </c>
       <c r="B3020" t="s">
-        <v>2556</v>
+        <v>2136</v>
       </c>
       <c r="C3020" t="s">
         <v>2631</v>
@@ -52998,38 +53001,38 @@
     </row>
     <row r="3021" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3021" t="s">
-        <v>1700</v>
+        <v>1715</v>
       </c>
       <c r="B3021" t="s">
-        <v>2551</v>
+        <v>2556</v>
       </c>
       <c r="C3021" t="s">
-        <v>2639</v>
+        <v>2631</v>
       </c>
       <c r="D3021" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="3022" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3022" t="s">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="B3022" t="s">
-        <v>2491</v>
+        <v>2551</v>
       </c>
       <c r="C3022" t="s">
-        <v>2631</v>
+        <v>2639</v>
       </c>
       <c r="D3022" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="3023" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3023" t="s">
-        <v>2077</v>
+        <v>1400</v>
       </c>
       <c r="B3023" t="s">
-        <v>2612</v>
+        <v>2491</v>
       </c>
       <c r="C3023" t="s">
         <v>2631</v>
@@ -53040,13 +53043,13 @@
     </row>
     <row r="3024" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3024" t="s">
-        <v>3214</v>
+        <v>2077</v>
       </c>
       <c r="B3024" t="s">
-        <v>2364</v>
+        <v>2612</v>
       </c>
       <c r="C3024" t="s">
-        <v>2648</v>
+        <v>2631</v>
       </c>
       <c r="D3024" t="s">
         <v>2680</v>
@@ -53054,7 +53057,7 @@
     </row>
     <row r="3025" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3025" t="s">
-        <v>735</v>
+        <v>3214</v>
       </c>
       <c r="B3025" t="s">
         <v>2364</v>
@@ -53068,7 +53071,7 @@
     </row>
     <row r="3026" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3026" t="s">
-        <v>3215</v>
+        <v>735</v>
       </c>
       <c r="B3026" t="s">
         <v>2364</v>
@@ -53082,13 +53085,13 @@
     </row>
     <row r="3027" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3027" t="s">
-        <v>1326</v>
+        <v>3215</v>
       </c>
       <c r="B3027" t="s">
-        <v>1326</v>
+        <v>2364</v>
       </c>
       <c r="C3027" t="s">
-        <v>2631</v>
+        <v>2648</v>
       </c>
       <c r="D3027" t="s">
         <v>2680</v>
@@ -53096,13 +53099,13 @@
     </row>
     <row r="3028" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3028" t="s">
-        <v>890</v>
+        <v>1326</v>
       </c>
       <c r="B3028" t="s">
-        <v>890</v>
+        <v>1326</v>
       </c>
       <c r="C3028" t="s">
-        <v>2624</v>
+        <v>2631</v>
       </c>
       <c r="D3028" t="s">
         <v>2680</v>
@@ -53110,13 +53113,13 @@
     </row>
     <row r="3029" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3029" t="s">
-        <v>1419</v>
+        <v>890</v>
       </c>
       <c r="B3029" t="s">
-        <v>1419</v>
+        <v>890</v>
       </c>
       <c r="C3029" t="s">
-        <v>2653</v>
+        <v>2624</v>
       </c>
       <c r="D3029" t="s">
         <v>2680</v>
@@ -53124,52 +53127,52 @@
     </row>
     <row r="3030" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3030" t="s">
-        <v>1028</v>
+        <v>1419</v>
       </c>
       <c r="B3030" t="s">
-        <v>2418</v>
+        <v>1419</v>
       </c>
       <c r="C3030" t="s">
-        <v>2623</v>
+        <v>2653</v>
       </c>
       <c r="D3030" t="s">
-        <v>2689</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="3031" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3031" t="s">
-        <v>608</v>
+        <v>1028</v>
       </c>
       <c r="B3031" t="s">
-        <v>2335</v>
+        <v>2418</v>
       </c>
       <c r="C3031" t="s">
-        <v>2639</v>
+        <v>2623</v>
       </c>
       <c r="D3031" t="s">
-        <v>2681</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="3032" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3032" t="s">
-        <v>281</v>
+        <v>608</v>
       </c>
       <c r="B3032" t="s">
-        <v>2256</v>
+        <v>2335</v>
       </c>
       <c r="C3032" t="s">
-        <v>2623</v>
+        <v>2639</v>
       </c>
       <c r="D3032" t="s">
-        <v>2734</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="3033" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3033" t="s">
-        <v>1267</v>
+        <v>281</v>
       </c>
       <c r="B3033" t="s">
-        <v>2467</v>
+        <v>2256</v>
       </c>
       <c r="C3033" t="s">
         <v>2623</v>
@@ -53180,30 +53183,30 @@
     </row>
     <row r="3034" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3034" t="s">
-        <v>2079</v>
+        <v>1267</v>
       </c>
       <c r="B3034" t="s">
-        <v>2613</v>
+        <v>2467</v>
       </c>
       <c r="C3034" t="s">
-        <v>2639</v>
+        <v>2623</v>
       </c>
       <c r="D3034" t="s">
-        <v>2681</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="3035" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3035" t="s">
-        <v>469</v>
+        <v>2079</v>
       </c>
       <c r="B3035" t="s">
-        <v>469</v>
+        <v>2613</v>
       </c>
       <c r="C3035" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="D3035" t="s">
-        <v>2691</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="3036" spans="1:4" x14ac:dyDescent="0.2">
@@ -53222,16 +53225,16 @@
     </row>
     <row r="3037" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3037" t="s">
-        <v>822</v>
+        <v>469</v>
       </c>
       <c r="B3037" t="s">
-        <v>822</v>
+        <v>469</v>
       </c>
       <c r="C3037" t="s">
-        <v>2623</v>
+        <v>2649</v>
       </c>
       <c r="D3037" t="s">
-        <v>2745</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="3038" spans="1:4" x14ac:dyDescent="0.2">
@@ -53250,38 +53253,38 @@
     </row>
     <row r="3039" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3039" t="s">
-        <v>1950</v>
+        <v>822</v>
       </c>
       <c r="B3039" t="s">
-        <v>2593</v>
+        <v>822</v>
       </c>
       <c r="C3039" t="s">
-        <v>2630</v>
+        <v>2623</v>
       </c>
       <c r="D3039" t="s">
-        <v>2793</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="3040" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3040" t="s">
-        <v>1877</v>
+        <v>1950</v>
       </c>
       <c r="B3040" t="s">
-        <v>1877</v>
+        <v>2593</v>
       </c>
       <c r="C3040" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="D3040" t="s">
-        <v>2745</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="3041" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3041" t="s">
-        <v>498</v>
+        <v>1877</v>
       </c>
       <c r="B3041" t="s">
-        <v>498</v>
+        <v>1877</v>
       </c>
       <c r="C3041" t="s">
         <v>2632</v>
@@ -53292,44 +53295,44 @@
     </row>
     <row r="3042" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3042" t="s">
-        <v>983</v>
+        <v>498</v>
       </c>
       <c r="B3042" t="s">
-        <v>2409</v>
+        <v>498</v>
       </c>
       <c r="C3042" t="s">
-        <v>2639</v>
+        <v>2632</v>
       </c>
       <c r="D3042" t="s">
-        <v>2681</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="3043" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3043" t="s">
-        <v>2120</v>
+        <v>983</v>
       </c>
       <c r="B3043" t="s">
-        <v>2120</v>
+        <v>2409</v>
       </c>
       <c r="C3043" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="D3043" t="s">
-        <v>2691</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="3044" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3044" t="s">
-        <v>963</v>
+        <v>2120</v>
       </c>
       <c r="B3044" t="s">
-        <v>2404</v>
+        <v>2120</v>
       </c>
       <c r="C3044" t="s">
-        <v>2623</v>
+        <v>2649</v>
       </c>
       <c r="D3044" t="s">
-        <v>2724</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="3045" spans="1:4" x14ac:dyDescent="0.2">
@@ -53348,66 +53351,66 @@
     </row>
     <row r="3046" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3046" t="s">
-        <v>1142</v>
+        <v>963</v>
       </c>
       <c r="B3046" t="s">
-        <v>2442</v>
+        <v>2404</v>
       </c>
       <c r="C3046" t="s">
         <v>2623</v>
       </c>
       <c r="D3046" t="s">
-        <v>2765</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="3047" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3047" t="s">
-        <v>1570</v>
+        <v>1142</v>
       </c>
       <c r="B3047" t="s">
-        <v>2529</v>
+        <v>2442</v>
       </c>
       <c r="C3047" t="s">
-        <v>2676</v>
+        <v>2623</v>
       </c>
       <c r="D3047" t="s">
-        <v>2790</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="3048" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3048" t="s">
-        <v>864</v>
+        <v>1570</v>
       </c>
       <c r="B3048" t="s">
-        <v>2389</v>
+        <v>2529</v>
       </c>
       <c r="C3048" t="s">
-        <v>2623</v>
+        <v>2676</v>
       </c>
       <c r="D3048" t="s">
-        <v>2759</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="3049" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3049" t="s">
-        <v>1921</v>
+        <v>864</v>
       </c>
       <c r="B3049" t="s">
-        <v>2591</v>
+        <v>2389</v>
       </c>
       <c r="C3049" t="s">
         <v>2623</v>
       </c>
       <c r="D3049" t="s">
-        <v>2743</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="3050" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3050" t="s">
-        <v>455</v>
+        <v>1921</v>
       </c>
       <c r="B3050" t="s">
-        <v>2304</v>
+        <v>2591</v>
       </c>
       <c r="C3050" t="s">
         <v>2623</v>
@@ -53418,16 +53421,16 @@
     </row>
     <row r="3051" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3051" t="s">
-        <v>178</v>
+        <v>455</v>
       </c>
       <c r="B3051" t="s">
-        <v>2223</v>
+        <v>2304</v>
       </c>
       <c r="C3051" t="s">
         <v>2623</v>
       </c>
       <c r="D3051" t="s">
-        <v>2723</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="3052" spans="1:4" x14ac:dyDescent="0.2">
@@ -53446,52 +53449,52 @@
     </row>
     <row r="3053" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3053" t="s">
-        <v>457</v>
+        <v>178</v>
       </c>
       <c r="B3053" t="s">
-        <v>2306</v>
+        <v>2223</v>
       </c>
       <c r="C3053" t="s">
         <v>2623</v>
       </c>
       <c r="D3053" t="s">
-        <v>2744</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="3054" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3054" t="s">
-        <v>1490</v>
+        <v>457</v>
       </c>
       <c r="B3054" t="s">
-        <v>2510</v>
+        <v>2306</v>
       </c>
       <c r="C3054" t="s">
         <v>2623</v>
       </c>
       <c r="D3054" t="s">
-        <v>2786</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="3055" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3055" t="s">
-        <v>652</v>
+        <v>1490</v>
       </c>
       <c r="B3055" t="s">
-        <v>2343</v>
+        <v>2510</v>
       </c>
       <c r="C3055" t="s">
-        <v>2639</v>
+        <v>2623</v>
       </c>
       <c r="D3055" t="s">
-        <v>2681</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="3056" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3056" t="s">
-        <v>1711</v>
+        <v>652</v>
       </c>
       <c r="B3056" t="s">
-        <v>2555</v>
+        <v>2343</v>
       </c>
       <c r="C3056" t="s">
         <v>2639</v>
@@ -53502,58 +53505,58 @@
     </row>
     <row r="3057" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3057" t="s">
-        <v>1018</v>
+        <v>1711</v>
       </c>
       <c r="B3057" t="s">
-        <v>1764</v>
+        <v>2555</v>
       </c>
       <c r="C3057" t="s">
-        <v>2627</v>
+        <v>2639</v>
       </c>
       <c r="D3057" t="s">
-        <v>2713</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="3058" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3058" t="s">
-        <v>3171</v>
+        <v>1018</v>
       </c>
       <c r="B3058" t="s">
-        <v>3182</v>
+        <v>1764</v>
       </c>
       <c r="C3058" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="D3058" t="s">
-        <v>2758</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="3059" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3059" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="B3059" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C3059" t="s">
-        <v>2649</v>
+        <v>2623</v>
       </c>
       <c r="D3059" t="s">
-        <v>2705</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="3060" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3060" t="s">
-        <v>210</v>
+        <v>3172</v>
       </c>
       <c r="B3060" t="s">
-        <v>2236</v>
+        <v>3183</v>
       </c>
       <c r="C3060" t="s">
-        <v>2630</v>
+        <v>2649</v>
       </c>
       <c r="D3060" t="s">
-        <v>2730</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="3061" spans="1:4" x14ac:dyDescent="0.2">
@@ -53586,38 +53589,38 @@
     </row>
     <row r="3063" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3063" t="s">
-        <v>877</v>
+        <v>210</v>
       </c>
       <c r="B3063" t="s">
-        <v>2391</v>
+        <v>2236</v>
       </c>
       <c r="C3063" t="s">
-        <v>2667</v>
+        <v>2630</v>
       </c>
       <c r="D3063" t="s">
-        <v>2761</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="3064" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3064" t="s">
-        <v>3430</v>
+        <v>877</v>
       </c>
       <c r="B3064" t="s">
-        <v>3430</v>
+        <v>2391</v>
       </c>
       <c r="C3064" t="s">
-        <v>2634</v>
+        <v>2667</v>
       </c>
       <c r="D3064" t="s">
-        <v>2703</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="3065" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3065" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="B3065" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="C3065" t="s">
         <v>2634</v>
@@ -53628,55 +53631,55 @@
     </row>
     <row r="3066" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3066" t="s">
-        <v>534</v>
+        <v>3431</v>
       </c>
       <c r="B3066" t="s">
-        <v>2318</v>
+        <v>3431</v>
       </c>
       <c r="C3066" t="s">
-        <v>2627</v>
+        <v>2634</v>
       </c>
       <c r="D3066" t="s">
-        <v>2738</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="3067" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3067" t="s">
-        <v>441</v>
+        <v>534</v>
       </c>
       <c r="B3067" t="s">
-        <v>441</v>
+        <v>2318</v>
       </c>
       <c r="C3067" t="s">
-        <v>2632</v>
+        <v>2627</v>
       </c>
       <c r="D3067" t="s">
-        <v>2691</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="3068" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3068" t="s">
-        <v>2022</v>
+        <v>441</v>
       </c>
       <c r="B3068" t="s">
-        <v>2130</v>
+        <v>441</v>
       </c>
       <c r="C3068" t="s">
-        <v>2678</v>
+        <v>2632</v>
       </c>
       <c r="D3068" t="s">
-        <v>2683</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="3069" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3069" t="s">
-        <v>1767</v>
+        <v>2022</v>
       </c>
       <c r="B3069" t="s">
         <v>2130</v>
       </c>
       <c r="C3069" t="s">
-        <v>2626</v>
+        <v>2678</v>
       </c>
       <c r="D3069" t="s">
         <v>2683</v>
@@ -53684,78 +53687,92 @@
     </row>
     <row r="3070" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3070" t="s">
-        <v>3201</v>
+        <v>1767</v>
       </c>
       <c r="B3070" t="s">
-        <v>3192</v>
+        <v>2130</v>
       </c>
       <c r="C3070" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="D3070" t="s">
-        <v>2689</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="3071" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3071" t="s">
-        <v>1705</v>
+        <v>3201</v>
       </c>
       <c r="B3071" t="s">
-        <v>2552</v>
+        <v>3192</v>
       </c>
       <c r="C3071" t="s">
         <v>2623</v>
       </c>
       <c r="D3071" t="s">
-        <v>2717</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="3072" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3072" t="s">
-        <v>1298</v>
+        <v>1705</v>
       </c>
       <c r="B3072" t="s">
-        <v>1298</v>
+        <v>2552</v>
       </c>
       <c r="C3072" t="s">
-        <v>2665</v>
+        <v>2623</v>
       </c>
       <c r="D3072" t="s">
-        <v>2781</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="3073" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3073" t="s">
-        <v>1316</v>
+        <v>1298</v>
       </c>
       <c r="B3073" t="s">
-        <v>2478</v>
+        <v>1298</v>
       </c>
       <c r="C3073" t="s">
-        <v>2623</v>
+        <v>2665</v>
       </c>
       <c r="D3073" t="s">
-        <v>2717</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="3074" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3074" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3075" t="s">
         <v>1491</v>
       </c>
-      <c r="B3074" t="s">
+      <c r="B3075" t="s">
         <v>2511</v>
       </c>
-      <c r="C3074" t="s">
+      <c r="C3075" t="s">
         <v>2656</v>
       </c>
-      <c r="D3074" t="s">
+      <c r="D3075" t="s">
         <v>2741</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3073" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D3074">
-      <sortCondition ref="A1:A3074"/>
+  <autoFilter ref="A1:D3075" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D3075">
+      <sortCondition ref="A1:A3075"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/utils/import/classifications.xlsx
+++ b/premise/data/utils/import/classifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/utils/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953C614F-BBB1-A742-820C-2994CACEB4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548C4DCB-B0AD-2141-A7D6-F1A10E54B44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40160" yWindow="-680" windowWidth="29840" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12300" uniqueCount="3434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12312" uniqueCount="3440">
   <si>
     <t>name</t>
   </si>
@@ -10338,6 +10338,24 @@
   </si>
   <si>
     <t>transport, freight, lorry, gasoline, 3.5 metric ton</t>
+  </si>
+  <si>
+    <t>heat pump production, industrial, water-water, 100 kW</t>
+  </si>
+  <si>
+    <t>heat pump, water-water, 100kW</t>
+  </si>
+  <si>
+    <t>steam heat production, water-water heat pump, industrial, 100kW</t>
+  </si>
+  <si>
+    <t>steam heat, water-water heat pump, industrial, 100kW</t>
+  </si>
+  <si>
+    <t>heat production, water-water heat pump, industrial, 100kW</t>
+  </si>
+  <si>
+    <t>heat, water-water heat pump, industrial, 100kW</t>
   </si>
 </sst>
 </file>
@@ -10705,10 +10723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3075"/>
+  <dimension ref="A1:D3078"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2601" workbookViewId="0">
-      <selection activeCell="C2636" sqref="C2636"/>
+    <sheetView tabSelected="1" topLeftCell="A3034" workbookViewId="0">
+      <selection activeCell="C3077" sqref="C3077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53769,6 +53787,48 @@
         <v>2741</v>
       </c>
     </row>
+    <row r="3076" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3076" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3077" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3078" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>2683</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D3075" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D3075">

--- a/premise/data/utils/import/classifications.xlsx
+++ b/premise/data/utils/import/classifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/utils/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548C4DCB-B0AD-2141-A7D6-F1A10E54B44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531BDF4-7DF1-0749-A134-D99C2FE37D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12312" uniqueCount="3440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12432" uniqueCount="3496">
   <si>
     <t>name</t>
   </si>
@@ -10356,6 +10356,174 @@
   </si>
   <si>
     <t>heat, water-water heat pump, industrial, 100kW</t>
+  </si>
+  <si>
+    <t>CCU-PP, granulate</t>
+  </si>
+  <si>
+    <t>CO2, captured from cement plant</t>
+  </si>
+  <si>
+    <t>CCU-HDPE, granulate</t>
+  </si>
+  <si>
+    <t>bio-HDPE, granulate</t>
+  </si>
+  <si>
+    <t>ethylene, from HDPE pyrolysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sobutanol, biobased</t>
+  </si>
+  <si>
+    <t>CCU-LDPE, granulate</t>
+  </si>
+  <si>
+    <t>bio-LDPE, granulate</t>
+  </si>
+  <si>
+    <t>ethylene, from LDPE pyrolysis</t>
+  </si>
+  <si>
+    <t>bio-A-PET, granulate (Ritzen et al.)</t>
+  </si>
+  <si>
+    <t>dimethyl terephthalate, from PET pyrolysis</t>
+  </si>
+  <si>
+    <t>terephthalic acid, from PET pyrolysis</t>
+  </si>
+  <si>
+    <t>bio-PP, granulate</t>
+  </si>
+  <si>
+    <t>propylene, from PP pyrolysis</t>
+  </si>
+  <si>
+    <t>styrene, from PS pyrolysis</t>
+  </si>
+  <si>
+    <t>bio-PVC,  suspension polymerised</t>
+  </si>
+  <si>
+    <t>ethylene, biobased (Kochar et al.)</t>
+  </si>
+  <si>
+    <t>ethylene, biobased (Ritzen et al.)</t>
+  </si>
+  <si>
+    <t>ethylene, from methanol (Hoppe et al.)</t>
+  </si>
+  <si>
+    <t>p-xylene, biobased</t>
+  </si>
+  <si>
+    <t>methanol, from CCU</t>
+  </si>
+  <si>
+    <t>p-xylene, biobased (Ritzen et al.)</t>
+  </si>
+  <si>
+    <t>propylene, from methanol (Hoppe et al.)</t>
+  </si>
+  <si>
+    <t>terephthalic acid, biobased</t>
+  </si>
+  <si>
+    <t>softwood hydrolysate (Ritzen et al.)</t>
+  </si>
+  <si>
+    <t>vinyl chloride, biobased</t>
+  </si>
+  <si>
+    <t>ethylene glycol, biobased</t>
+  </si>
+  <si>
+    <t>propylene, biogenic</t>
+  </si>
+  <si>
+    <t>ethylene oxide, biobased</t>
+  </si>
+  <si>
+    <t>CCU-PP production, granulate</t>
+  </si>
+  <si>
+    <t>CO2, captured from cement plant (Hoppe et al.)</t>
+  </si>
+  <si>
+    <t>HDPE production, CCU-based</t>
+  </si>
+  <si>
+    <t>HDPE production, biobased, granulate</t>
+  </si>
+  <si>
+    <t>HDPE, chemical recycling, pyrolysis</t>
+  </si>
+  <si>
+    <t>isobutanol production, biobased</t>
+  </si>
+  <si>
+    <t>LDPE production, CCU-based</t>
+  </si>
+  <si>
+    <t>LDPE production, biobased, granulate</t>
+  </si>
+  <si>
+    <t>LDPE, chemical recycling, pyrolysis</t>
+  </si>
+  <si>
+    <t>PET production, biobased granulate, amorphous (Ritzen et al.)</t>
+  </si>
+  <si>
+    <t>PET, chemical recycling, pyrolysis</t>
+  </si>
+  <si>
+    <t>PP production, biobased</t>
+  </si>
+  <si>
+    <t>PP, chemical recycling, pyrolysis</t>
+  </si>
+  <si>
+    <t>PS, chemical recycling, pyrolysis</t>
+  </si>
+  <si>
+    <t>PVC, biobased, suspension polymerisation</t>
+  </si>
+  <si>
+    <t>ethylene production from brasilian ethanol (Kochar et al.)</t>
+  </si>
+  <si>
+    <t>ethylene production from brasilian ethanol (Ritzen et al.)</t>
+  </si>
+  <si>
+    <t>market for p-xylene</t>
+  </si>
+  <si>
+    <t>methanol synthesis (Hoppe et al.)</t>
+  </si>
+  <si>
+    <t>p-xylene production, biobased</t>
+  </si>
+  <si>
+    <t>purified terephthalic acid production, biobased</t>
+  </si>
+  <si>
+    <t>softwood hydrolysate production (Ritzen et al.)</t>
+  </si>
+  <si>
+    <t>vinyl chloride production, biobased</t>
+  </si>
+  <si>
+    <t>ethylene glycols production, thermal hydrolysis of ethylene oxide (Ritzen et al.)</t>
+  </si>
+  <si>
+    <t>bio-propylene production, from methanol-to-propylene conversion</t>
+  </si>
+  <si>
+    <t>ethylene oxide production, ethylene oxidation (Ritzen et al.)</t>
+  </si>
+  <si>
+    <t>isobutanol, biobased</t>
   </si>
 </sst>
 </file>
@@ -10723,10 +10891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3078"/>
+  <dimension ref="A1:D3108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3034" workbookViewId="0">
-      <selection activeCell="C3077" sqref="C3077"/>
+    <sheetView tabSelected="1" topLeftCell="A3074" workbookViewId="0">
+      <selection activeCell="C3109" sqref="C3109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53829,6 +53997,426 @@
         <v>2683</v>
       </c>
     </row>
+    <row r="3079" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3079" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3080" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3081" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3082" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3083" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3084" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3085" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3086" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3087" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3088" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3089" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3090" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3091" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3092" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3093" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3094" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3095" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3096" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3097" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3098" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3099" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3100" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3101" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3102" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3103" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3104" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3105" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3106" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3107" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3108" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>3495</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>2750</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D3075" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D3075">

--- a/premise/data/utils/import/classifications.xlsx
+++ b/premise/data/utils/import/classifications.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/utils/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/utils/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531BDF4-7DF1-0749-A134-D99C2FE37D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC3790E-1F2D-7B42-AF07-4F0F0C6FD8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="33940" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3075</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12432" uniqueCount="3496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12614" uniqueCount="3553">
   <si>
     <t>name</t>
   </si>
@@ -10524,6 +10524,177 @@
   </si>
   <si>
     <t>isobutanol, biobased</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, low-alloyed</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, unalloyed</t>
+  </si>
+  <si>
+    <t>alloys production, for low-alloyed steel</t>
+  </si>
+  <si>
+    <t>pig iron production, blast furnace, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at pig iron production plant, using monoethanolamine</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, low-alloyed, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, unalloyed, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>pig iron production, top gas recycling-blast furnace</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, low-alloyed, with top gas recycling</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, unalloyed, with top gas recycling</t>
+  </si>
+  <si>
+    <t>pig iron production, blast furnace, with top gas recycling, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at steel production plant, using vacuum pressure swing adsorption</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, with top gas recycling, low-alloyed, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, with top gas recycling, unalloyed, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>iron porduction, with natural gas-based direct reduction</t>
+  </si>
+  <si>
+    <t>steel production, natural gas-based direct reduction iron-electric arc furnace, low-alloyed</t>
+  </si>
+  <si>
+    <t>steel production, natural gas-based direct reduction iron-electric arc furnace, unalloyed</t>
+  </si>
+  <si>
+    <t>iron production, with natural gas-based direct reduction, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at steel production plant using direct reduction iron, using vacuum pressure swing adsorption</t>
+  </si>
+  <si>
+    <t>steel production, natural gas-based direct reduction iron-electric arc furnace, low-alloyed, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>steel production, natural gas-based direct reduction iron-electric arc furnace, unalloyed, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>steel production, hydrogen-based direct reduction iron-electric arc furnace, low-alloyed</t>
+  </si>
+  <si>
+    <t>steel production, hydrogen-based direct reduction iron-electric arc furnace, unalloyed</t>
+  </si>
+  <si>
+    <t>pig iron production, hydrogen-based direct reduction iron</t>
+  </si>
+  <si>
+    <t>preheating of iron ore pellets</t>
+  </si>
+  <si>
+    <t>preheating of hydrogen</t>
+  </si>
+  <si>
+    <t>iron production, by electrowinning</t>
+  </si>
+  <si>
+    <t>leaching of iron ore</t>
+  </si>
+  <si>
+    <t>market for cathode, graphite</t>
+  </si>
+  <si>
+    <t>nickel anode production, for electrolysis of iron ore</t>
+  </si>
+  <si>
+    <t>production of alkaline solution from sodium hydroxide of 50 wt-%</t>
+  </si>
+  <si>
+    <t>steel production, electrowinning-electric arc furnace, low-alloyed</t>
+  </si>
+  <si>
+    <t>steel production, electrowinning-electric arc furnace, unalloyed</t>
+  </si>
+  <si>
+    <t>ultrafine grinding of iron ore</t>
+  </si>
+  <si>
+    <t>steel, unalloyed</t>
+  </si>
+  <si>
+    <t>alloys, for low-alloyed steel</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>iron ore pellets, hot</t>
+  </si>
+  <si>
+    <t>hydrogen, hot</t>
+  </si>
+  <si>
+    <t>iron oxide in alkaline solution</t>
+  </si>
+  <si>
+    <t>cathode, graphite</t>
+  </si>
+  <si>
+    <t>nickel anode, for electrolysis of iron ore</t>
+  </si>
+  <si>
+    <t>alkaline solution with 50 wt-% sodium hydroxide</t>
+  </si>
+  <si>
+    <t>iron ore, ultrafine ground</t>
+  </si>
+  <si>
+    <t>market for steel, unalloyed</t>
+  </si>
+  <si>
+    <t>market for steel, low-alloyed</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, with carbon capture and storage, low-alloyed</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, with carbon capture and storage, unalloyed</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, with top gas recycling, low-alloyed</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, with top gas recycling, unalloyed</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, with top gas recycling, with carbon capture and storage, low-alloyed</t>
+  </si>
+  <si>
+    <t>steel production, blast furnace-basic oxygen furnace, with top gas recycling, with carbon capture and storage, unalloyed</t>
+  </si>
+  <si>
+    <t>pig iron production, with natural gas-based direct reduction</t>
+  </si>
+  <si>
+    <t>pig iron production, with natural gas-based direct reduction, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>steel production, natural gas-based direct reduction iron-electric arc furnace, with carbon capture and storage, low-alloyed</t>
+  </si>
+  <si>
+    <t>steel production, natural gas-based direct reduction iron-electric arc furnace, with carbon capture and storage, unalloyed</t>
+  </si>
+  <si>
+    <t>pig iron production, by electrowinning</t>
   </si>
 </sst>
 </file>
@@ -10891,10 +11062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3108"/>
+  <dimension ref="A1:D3155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3074" workbookViewId="0">
-      <selection activeCell="C3109" sqref="C3109"/>
+    <sheetView tabSelected="1" topLeftCell="A3138" workbookViewId="0">
+      <selection activeCell="B3161" sqref="B3161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54417,12 +54588,648 @@
         <v>2750</v>
       </c>
     </row>
+    <row r="3109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3109" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3110" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3110" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3111" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3112" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3113" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3114" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3115" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3116" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3117" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3118" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3119" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3120" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3121" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3122" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3123" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3124" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3125" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3126" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3127" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3128" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3129" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3130" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3131" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3132" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3133" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3134" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3135" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3136" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3137" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3138" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3139" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3140" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3141" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3142" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3143" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3144" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3145" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3146" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3147" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3148" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3149" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3150" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3151" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3152" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3153" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3154" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3155" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>2759</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3075" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D3075">
-      <sortCondition ref="A1:A3075"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D3142" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/utils/import/classifications.xlsx
+++ b/premise/data/utils/import/classifications.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/utils/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/utils/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC3790E-1F2D-7B42-AF07-4F0F0C6FD8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A40AB3-8371-B340-9262-32154576A634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="33940" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12614" uniqueCount="3553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12616" uniqueCount="3553">
   <si>
     <t>name</t>
   </si>
@@ -11064,8 +11064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3138" workbookViewId="0">
-      <selection activeCell="B3161" sqref="B3161"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54981,6 +54981,12 @@
       <c r="B3137" t="s">
         <v>3536</v>
       </c>
+      <c r="C3137" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>2741</v>
+      </c>
     </row>
     <row r="3138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3138" t="s">
@@ -55229,7 +55235,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3142" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D3155" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>